--- a/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.63099906953246</v>
+        <v>11.63099906953251</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.19126414357903</v>
+        <v>18.19126414357895</v>
       </c>
       <c r="E2">
-        <v>27.6319715421302</v>
+        <v>27.63197154213013</v>
       </c>
       <c r="F2">
-        <v>105.5245360799897</v>
+        <v>105.5245360799893</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>19.63533171818828</v>
+        <v>19.63533171818845</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>61.76539713525592</v>
+        <v>61.76539713525585</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,19 +456,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.71010038173353</v>
+        <v>15.71010038173371</v>
       </c>
       <c r="E3">
-        <v>25.11853663820806</v>
+        <v>25.11853663820828</v>
       </c>
       <c r="F3">
-        <v>91.82032697551446</v>
+        <v>91.82032697551527</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>18.99181056583778</v>
+        <v>18.99181056583773</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>55.30992070437172</v>
+        <v>55.309920704372</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.37829304141869</v>
+        <v>10.37829304141866</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.42091774096739</v>
+        <v>14.42091774096732</v>
       </c>
       <c r="E4">
-        <v>23.71708032459779</v>
+        <v>23.71708032459789</v>
       </c>
       <c r="F4">
-        <v>84.63244363309158</v>
+        <v>84.63244363309153</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>18.59064652786736</v>
+        <v>18.59064652786747</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.17247082359519</v>
+        <v>10.17247082359521</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.9239921527449</v>
+        <v>13.92399215274488</v>
       </c>
       <c r="E5">
-        <v>23.15807137279328</v>
+        <v>23.15807137279326</v>
       </c>
       <c r="F5">
-        <v>81.85174983889326</v>
+        <v>81.851749838893</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18.42825432645368</v>
+        <v>18.42825432645365</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>50.31387947077602</v>
+        <v>50.3138794707759</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.13794065749778</v>
+        <v>10.13794065749777</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.84271342880299</v>
+        <v>13.84271342880297</v>
       </c>
       <c r="E6">
-        <v>23.06562054056246</v>
+        <v>23.06562054056248</v>
       </c>
       <c r="F6">
-        <v>81.39645535897212</v>
+        <v>81.39645535897236</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18.40139030148973</v>
+        <v>18.40139030148969</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>50.07952086430345</v>
+        <v>50.0795208643035</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.37554090241276</v>
+        <v>10.37554090241278</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.41412430148347</v>
+        <v>14.41412430148354</v>
       </c>
       <c r="E7">
-        <v>23.70950983203999</v>
+        <v>23.70950983204001</v>
       </c>
       <c r="F7">
-        <v>84.59446393125839</v>
+        <v>84.59446393125835</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18.58845030467211</v>
+        <v>18.58845030467216</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>51.71414227260347</v>
+        <v>51.71414227260351</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E8">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F8">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E9">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F9">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E10">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F10">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E11">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F11">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E12">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F12">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E13">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F13">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E14">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F14">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E15">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F15">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E16">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F16">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E17">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F17">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E18">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F18">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E19">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F19">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E20">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F20">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E21">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F21">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E22">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F22">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E23">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F23">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E24">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F24">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.37309816464126</v>
+        <v>11.37309816464128</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.2569738568594</v>
+        <v>17.25697385685932</v>
       </c>
       <c r="E25">
-        <v>26.71207516180536</v>
+        <v>26.71207516180542</v>
       </c>
       <c r="F25">
-        <v>100.3864921210377</v>
+        <v>100.3864921210379</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19.41750848039629</v>
+        <v>19.41750848039631</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>59.40050172594519</v>
+        <v>59.40050172594528</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.63099906953251</v>
+        <v>11.63099906953246</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.19126414357895</v>
+        <v>18.19126414357903</v>
       </c>
       <c r="E2">
-        <v>27.63197154213013</v>
+        <v>27.6319715421302</v>
       </c>
       <c r="F2">
-        <v>105.5245360799893</v>
+        <v>105.5245360799897</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>19.63533171818845</v>
+        <v>19.63533171818828</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>61.76539713525585</v>
+        <v>61.76539713525592</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,19 +456,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.71010038173371</v>
+        <v>15.71010038173353</v>
       </c>
       <c r="E3">
-        <v>25.11853663820828</v>
+        <v>25.11853663820806</v>
       </c>
       <c r="F3">
-        <v>91.82032697551527</v>
+        <v>91.82032697551446</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>18.99181056583773</v>
+        <v>18.99181056583778</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>55.309920704372</v>
+        <v>55.30992070437172</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.37829304141866</v>
+        <v>10.37829304141869</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.42091774096732</v>
+        <v>14.42091774096739</v>
       </c>
       <c r="E4">
-        <v>23.71708032459789</v>
+        <v>23.71708032459779</v>
       </c>
       <c r="F4">
-        <v>84.63244363309153</v>
+        <v>84.63244363309158</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>18.59064652786747</v>
+        <v>18.59064652786736</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.17247082359521</v>
+        <v>10.17247082359519</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.92399215274488</v>
+        <v>13.9239921527449</v>
       </c>
       <c r="E5">
-        <v>23.15807137279326</v>
+        <v>23.15807137279328</v>
       </c>
       <c r="F5">
-        <v>81.851749838893</v>
+        <v>81.85174983889326</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18.42825432645365</v>
+        <v>18.42825432645368</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>50.3138794707759</v>
+        <v>50.31387947077602</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.13794065749777</v>
+        <v>10.13794065749778</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.84271342880297</v>
+        <v>13.84271342880299</v>
       </c>
       <c r="E6">
-        <v>23.06562054056248</v>
+        <v>23.06562054056246</v>
       </c>
       <c r="F6">
-        <v>81.39645535897236</v>
+        <v>81.39645535897212</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18.40139030148969</v>
+        <v>18.40139030148973</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>50.0795208643035</v>
+        <v>50.07952086430345</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.37554090241278</v>
+        <v>10.37554090241276</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.41412430148354</v>
+        <v>14.41412430148347</v>
       </c>
       <c r="E7">
-        <v>23.70950983204001</v>
+        <v>23.70950983203999</v>
       </c>
       <c r="F7">
-        <v>84.59446393125835</v>
+        <v>84.59446393125839</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18.58845030467216</v>
+        <v>18.58845030467211</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>51.71414227260351</v>
+        <v>51.71414227260347</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E8">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F8">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E9">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F9">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E10">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F10">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E11">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F11">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E12">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F12">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E13">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F13">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E14">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F14">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E15">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F15">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E16">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F16">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E17">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F17">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E18">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F18">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E19">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F19">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E20">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F20">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E21">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F21">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E22">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F22">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E23">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F23">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E24">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F24">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.37309816464128</v>
+        <v>11.37309816464126</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.25697385685932</v>
+        <v>17.2569738568594</v>
       </c>
       <c r="E25">
-        <v>26.71207516180542</v>
+        <v>26.71207516180536</v>
       </c>
       <c r="F25">
-        <v>100.3864921210379</v>
+        <v>100.3864921210377</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19.41750848039631</v>
+        <v>19.41750848039629</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>59.40050172594528</v>
+        <v>59.40050172594519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.63099906953246</v>
+        <v>11.63093132702731</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.19126414357903</v>
+        <v>17.83838366850934</v>
       </c>
       <c r="E2">
-        <v>27.6319715421302</v>
+        <v>27.28411805775575</v>
       </c>
       <c r="F2">
-        <v>105.5245360799897</v>
+        <v>103.923084532505</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.649930670002255</v>
       </c>
       <c r="H2">
-        <v>19.63533171818828</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>19.68008304161803</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>61.76539713525592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>61.17334763532082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.8690951753994</v>
+        <v>10.8685480640603</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.71010038173353</v>
+        <v>15.44146247645093</v>
       </c>
       <c r="E3">
-        <v>25.11853663820806</v>
+        <v>24.83103373603367</v>
       </c>
       <c r="F3">
-        <v>91.82032697551446</v>
+        <v>90.68146599931387</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.739787322594405</v>
       </c>
       <c r="H3">
-        <v>18.99181056583778</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>19.03134823444887</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>55.30992070437172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>54.87332418879204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.37829304141869</v>
+        <v>10.37777325722889</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.42091774096739</v>
+        <v>14.18290313561696</v>
       </c>
       <c r="E4">
-        <v>23.71708032459779</v>
+        <v>23.44649693621911</v>
       </c>
       <c r="F4">
-        <v>84.63244363309158</v>
+        <v>83.66747348991585</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.785093300152998</v>
       </c>
       <c r="H4">
-        <v>18.59064652786736</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>18.63011095774471</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>51.73339432911111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>51.34984347207842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.17247082359519</v>
+        <v>10.17200392844085</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.9239921527449</v>
+        <v>13.6965037850614</v>
       </c>
       <c r="E5">
-        <v>23.15807137279328</v>
+        <v>22.89222942545114</v>
       </c>
       <c r="F5">
-        <v>81.85174983889326</v>
+        <v>80.9476236626297</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.802252427650723</v>
       </c>
       <c r="H5">
-        <v>18.42825432645368</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>18.46803439257299</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>50.31387947077602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>49.94777196459496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.13794065749778</v>
+        <v>10.13748460394394</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.84271342880299</v>
+        <v>13.61689542517233</v>
       </c>
       <c r="E6">
-        <v>23.06562054056246</v>
+        <v>22.80047032422413</v>
       </c>
       <c r="F6">
-        <v>81.39645535897212</v>
+        <v>80.50204192953416</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.805042114126627</v>
       </c>
       <c r="H6">
-        <v>18.40139030148973</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>18.44123834538951</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>50.07952086430345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>49.71613569996102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.37554090241276</v>
+        <v>10.37502168555523</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.41412430148347</v>
+        <v>14.17625755286634</v>
       </c>
       <c r="E7">
-        <v>23.70950983203999</v>
+        <v>23.43899738742572</v>
       </c>
       <c r="F7">
-        <v>84.59446393125839</v>
+        <v>83.63034424529771</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.785329064300187</v>
       </c>
       <c r="H7">
-        <v>18.58845030467211</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>18.62791785601069</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>51.71414227260347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>51.33083968004585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E8">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F8">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H8">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E9">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F9">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H9">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E10">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F10">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H10">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E11">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F11">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H11">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E12">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F12">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H12">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E13">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F13">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H13">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E14">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F14">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H14">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E15">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F15">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H15">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E16">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F16">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H16">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E17">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F17">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H17">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E18">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F18">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H18">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E19">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F19">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H19">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E20">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F20">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H20">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E21">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F21">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H21">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E22">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F22">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H22">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E23">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F23">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H23">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E24">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F24">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H24">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>59.40050172594519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>58.87847541603956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.37309816464126</v>
+        <v>11.3727523242519</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.2569738568594</v>
+        <v>16.94145603325891</v>
       </c>
       <c r="E25">
-        <v>26.71207516180536</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F25">
-        <v>100.3864921210377</v>
+        <v>98.98809095495726</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.684099423663634</v>
       </c>
       <c r="H25">
-        <v>19.41750848039629</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>19.45929338635855</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>59.40050172594519</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>58.87847541603956</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.63093132702731</v>
+        <v>7.278891300452045</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>17.83838366850934</v>
+        <v>4.333155920074228</v>
       </c>
       <c r="E2">
-        <v>27.28411805775575</v>
+        <v>32.5541090344169</v>
       </c>
       <c r="F2">
-        <v>103.923084532505</v>
+        <v>39.9610364870847</v>
       </c>
       <c r="G2">
-        <v>1.649930670002255</v>
+        <v>1.910365880059693</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.68008304161803</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>73.6807505152519</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>61.17334763532082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>31.4246691682919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.8685480640603</v>
+        <v>6.911392226027727</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.44146247645093</v>
+        <v>3.780703644019715</v>
       </c>
       <c r="E3">
-        <v>24.83103373603367</v>
+        <v>29.77547166192691</v>
       </c>
       <c r="F3">
-        <v>90.68146599931387</v>
+        <v>36.13310987213423</v>
       </c>
       <c r="G3">
-        <v>1.739787322594405</v>
+        <v>1.936523189908466</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.03134823444887</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>68.24819626557904</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>54.87332418879204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>28.31918404954369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.37777325722889</v>
+        <v>6.68059805481356</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.18290313561696</v>
+        <v>3.451288177414511</v>
       </c>
       <c r="E4">
-        <v>23.44649693621911</v>
+        <v>28.05304538644492</v>
       </c>
       <c r="F4">
-        <v>83.66747348991585</v>
+        <v>33.81170577712194</v>
       </c>
       <c r="G4">
-        <v>1.785093300152998</v>
+        <v>1.95227029559935</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.63011095774471</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>64.79273462579749</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>51.34984347207842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>26.43581903092719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.17200392844085</v>
+        <v>6.585336293349059</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.6965037850614</v>
+        <v>3.318679342282842</v>
       </c>
       <c r="E5">
-        <v>22.89222942545114</v>
+        <v>27.34406331606909</v>
       </c>
       <c r="F5">
-        <v>80.9476236626297</v>
+        <v>32.8693372521063</v>
       </c>
       <c r="G5">
-        <v>1.802252427650723</v>
+        <v>1.958643450960728</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.46803439257299</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>63.35163040678259</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>49.94777196459496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>25.67106754313448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.13748460394394</v>
+        <v>6.569447981912502</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.61689542517233</v>
+        <v>3.296737489168412</v>
       </c>
       <c r="E6">
-        <v>22.80047032422413</v>
+        <v>27.22583579219502</v>
       </c>
       <c r="F6">
-        <v>80.50204192953416</v>
+        <v>32.7129905768976</v>
       </c>
       <c r="G6">
-        <v>1.805042114126627</v>
+        <v>1.95969993206693</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.44123834538951</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>63.1102723898392</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>49.71613569996102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>25.54417131008281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.37502168555523</v>
+        <v>6.679318094690817</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.17625755286634</v>
+        <v>3.449494125851226</v>
       </c>
       <c r="E7">
-        <v>23.43899738742572</v>
+        <v>28.04351589619531</v>
       </c>
       <c r="F7">
-        <v>83.63034424529771</v>
+        <v>33.79898601811626</v>
       </c>
       <c r="G7">
-        <v>1.785329064300187</v>
+        <v>1.952356383516954</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.62791785601069</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>64.77343623635541</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>51.33083968004585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>26.42549775321685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.3727523242519</v>
+        <v>7.153286929216788</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>16.94145603325891</v>
+        <v>4.140069322973057</v>
       </c>
       <c r="E8">
-        <v>26.39264419462182</v>
+        <v>31.59738789034852</v>
       </c>
       <c r="F8">
-        <v>98.98809095495726</v>
+        <v>38.63256565794207</v>
       </c>
       <c r="G8">
-        <v>1.684099423663634</v>
+        <v>1.919473800258833</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>71.83056693008044</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>30.34682276252518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.3727523242519</v>
+        <v>8.039917667885646</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.94145603325891</v>
+        <v>5.624857627343227</v>
       </c>
       <c r="E9">
-        <v>26.39264419462182</v>
+        <v>38.62771190943207</v>
       </c>
       <c r="F9">
-        <v>98.98809095495726</v>
+        <v>48.59070371436587</v>
       </c>
       <c r="G9">
-        <v>1.684099423663634</v>
+        <v>1.850303393379793</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>84.8926713749334</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>38.43400414762152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.3727523242519</v>
+        <v>8.750126356939889</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>16.94145603325891</v>
+        <v>6.914196374928809</v>
       </c>
       <c r="E10">
-        <v>26.39264419462182</v>
+        <v>44.26827748149551</v>
       </c>
       <c r="F10">
-        <v>98.98809095495726</v>
+        <v>56.78118579977723</v>
       </c>
       <c r="G10">
-        <v>1.684099423663634</v>
+        <v>1.791734377459764</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>94.39162863155209</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>45.1067232353502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.3727523242519</v>
+        <v>9.087109794403156</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>16.94145603325891</v>
+        <v>7.598304409028706</v>
       </c>
       <c r="E11">
-        <v>26.39264419462182</v>
+        <v>47.14510653546742</v>
       </c>
       <c r="F11">
-        <v>98.98809095495726</v>
+        <v>60.96704289779974</v>
       </c>
       <c r="G11">
-        <v>1.684099423663634</v>
+        <v>1.761193341576697</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>98.85669504651368</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>48.52679290309235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.3727523242519</v>
+        <v>9.213551716426553</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>16.94145603325891</v>
+        <v>7.881008256336592</v>
       </c>
       <c r="E12">
-        <v>26.39264419462182</v>
+        <v>48.31703192477401</v>
       </c>
       <c r="F12">
-        <v>98.98809095495726</v>
+        <v>62.66577104658554</v>
       </c>
       <c r="G12">
-        <v>1.684099423663634</v>
+        <v>1.748680494000638</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>100.5964962940757</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>49.9168938750917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.3727523242519</v>
+        <v>9.186360616645851</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>16.94145603325891</v>
+        <v>7.818821683433589</v>
       </c>
       <c r="E13">
-        <v>26.39264419462182</v>
+        <v>48.05996557322391</v>
       </c>
       <c r="F13">
-        <v>98.98809095495726</v>
+        <v>62.29363841640089</v>
       </c>
       <c r="G13">
-        <v>1.684099423663634</v>
+        <v>1.751427501183588</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>100.2188969644865</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>49.61226008954036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.3727523242519</v>
+        <v>9.097531673266877</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>16.94145603325891</v>
+        <v>7.621003053666577</v>
       </c>
       <c r="E14">
-        <v>26.39264419462182</v>
+        <v>47.23952471652225</v>
       </c>
       <c r="F14">
-        <v>98.98809095495726</v>
+        <v>61.10409943578993</v>
       </c>
       <c r="G14">
-        <v>1.684099423663634</v>
+        <v>1.760186326559695</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>98.99859921953895</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>48.63890126413695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.3727523242519</v>
+        <v>9.042989167467381</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>16.94145603325891</v>
+        <v>7.503337470673174</v>
       </c>
       <c r="E15">
-        <v>26.39264419462182</v>
+        <v>46.74942465113588</v>
       </c>
       <c r="F15">
-        <v>98.98809095495726</v>
+        <v>60.39236085766048</v>
       </c>
       <c r="G15">
-        <v>1.684099423663634</v>
+        <v>1.765410929754563</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>98.25874435640269</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>48.0568086162906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.3727523242519</v>
+        <v>8.727908184387719</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>16.94145603325891</v>
+        <v>6.872111710168875</v>
       </c>
       <c r="E16">
-        <v>26.39264419462182</v>
+        <v>44.08909472335053</v>
       </c>
       <c r="F16">
-        <v>98.98809095495726</v>
+        <v>56.52015219129988</v>
       </c>
       <c r="G16">
-        <v>1.684099423663634</v>
+        <v>1.79362523119674</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>94.10467869674758</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>44.89368242507476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.3727523242519</v>
+        <v>8.531952574776176</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16.94145603325891</v>
+        <v>6.51468920180114</v>
       </c>
       <c r="E17">
-        <v>26.39264419462182</v>
+        <v>42.5553513982231</v>
       </c>
       <c r="F17">
-        <v>98.98809095495726</v>
+        <v>54.28637849542402</v>
       </c>
       <c r="G17">
-        <v>1.684099423663634</v>
+        <v>1.809740484940938</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>91.60752589975041</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>43.07168119541274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.3727523242519</v>
+        <v>8.418135820601638</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>16.94145603325891</v>
+        <v>6.317489266277826</v>
       </c>
       <c r="E18">
-        <v>26.39264419462182</v>
+        <v>41.69926316682987</v>
       </c>
       <c r="F18">
-        <v>98.98809095495726</v>
+        <v>53.04089093146798</v>
       </c>
       <c r="G18">
-        <v>1.684099423663634</v>
+        <v>1.818675025768033</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>90.1824259436262</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>42.05659588365035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.3727523242519</v>
+        <v>8.379399191183664</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>16.94145603325891</v>
+        <v>6.251971699149506</v>
       </c>
       <c r="E19">
-        <v>26.39264419462182</v>
+        <v>41.41316083286095</v>
       </c>
       <c r="F19">
-        <v>98.98809095495726</v>
+        <v>52.62500919014681</v>
       </c>
       <c r="G19">
-        <v>1.684099423663634</v>
+        <v>1.821650281471996</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>89.70127112799914</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>41.71777219430285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.3727523242519</v>
+        <v>8.552924614333762</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>16.94145603325891</v>
+        <v>6.55182255353558</v>
       </c>
       <c r="E20">
-        <v>26.39264419462182</v>
+        <v>42.71573813971914</v>
       </c>
       <c r="F20">
-        <v>98.98809095495726</v>
+        <v>54.51986209343644</v>
       </c>
       <c r="G20">
-        <v>1.684099423663634</v>
+        <v>1.808061536848182</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>91.87205129095204</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>43.26203605861259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.3727523242519</v>
+        <v>9.123649044418476</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>16.94145603325891</v>
+        <v>7.678346196860517</v>
       </c>
       <c r="E21">
-        <v>26.39264419462182</v>
+        <v>47.47779112793386</v>
       </c>
       <c r="F21">
-        <v>98.98809095495726</v>
+        <v>61.44982527659425</v>
       </c>
       <c r="G21">
-        <v>1.684099423663634</v>
+        <v>1.757644143230699</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>99.35535480449393</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>48.92173194391102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.3727523242519</v>
+        <v>9.490426215709153</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>16.94145603325891</v>
+        <v>8.565653333383427</v>
       </c>
       <c r="E22">
-        <v>26.39264419462182</v>
+        <v>51.12520074732815</v>
       </c>
       <c r="F22">
-        <v>98.98809095495726</v>
+        <v>66.70602669533945</v>
       </c>
       <c r="G22">
-        <v>1.684099423663634</v>
+        <v>1.718642829869251</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>104.5694707920408</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>53.2284902875671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.3727523242519</v>
+        <v>9.294965268616727</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>16.94145603325891</v>
+        <v>8.072149652053346</v>
       </c>
       <c r="E23">
-        <v>26.39264419462182</v>
+        <v>49.10484732121192</v>
       </c>
       <c r="F23">
-        <v>98.98809095495726</v>
+        <v>63.80418661157324</v>
       </c>
       <c r="G23">
-        <v>1.684099423663634</v>
+        <v>1.740256429189884</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>101.739384253781</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>50.84921329717219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.3727523242519</v>
+        <v>8.543446795709311</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>16.94145603325891</v>
+        <v>6.53500933821807</v>
       </c>
       <c r="E24">
-        <v>26.39264419462182</v>
+        <v>42.64314957639318</v>
       </c>
       <c r="F24">
-        <v>98.98809095495726</v>
+        <v>54.41418639554762</v>
       </c>
       <c r="G24">
-        <v>1.684099423663634</v>
+        <v>1.808821594553817</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>91.75242824835405</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>58.87847541603956</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>43.17587810522006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.3727523242519</v>
+        <v>7.804772629722128</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.94145603325891</v>
+        <v>5.200035669494441</v>
       </c>
       <c r="E25">
-        <v>26.39264419462182</v>
+        <v>36.68595970996918</v>
       </c>
       <c r="F25">
-        <v>98.98809095495726</v>
+        <v>45.80115621421606</v>
       </c>
       <c r="G25">
-        <v>1.684099423663634</v>
+        <v>1.869897372603224</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.45929338635855</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>81.41253501858566</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>58.87847541603956</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>36.16632567016605</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.278891300452045</v>
+        <v>15.49998446214604</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.333155920074228</v>
+        <v>2.949624814389783</v>
       </c>
       <c r="E2">
-        <v>32.5541090344169</v>
+        <v>7.970506964879692</v>
       </c>
       <c r="F2">
-        <v>39.9610364870847</v>
+        <v>18.72685422610168</v>
       </c>
       <c r="G2">
-        <v>1.910365880059693</v>
+        <v>26.19534574115212</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.345680383924454</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>34.94384316069146</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>73.6807505152519</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>36.14308197528873</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>31.4246691682919</v>
+        <v>13.58203574986567</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.911392226027727</v>
+        <v>14.47503491057847</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.780703644019715</v>
+        <v>2.813232214427143</v>
       </c>
       <c r="E3">
-        <v>29.77547166192691</v>
+        <v>7.342121513039224</v>
       </c>
       <c r="F3">
-        <v>36.13310987213423</v>
+        <v>17.51957421787042</v>
       </c>
       <c r="G3">
-        <v>1.936523189908466</v>
+        <v>24.27826779146593</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.115863168347521</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>32.89155016520542</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>68.24819626557904</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>33.79635198668028</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.31918404954369</v>
+        <v>12.79473234940472</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.68059805481356</v>
+        <v>13.81008205358676</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.451288177414511</v>
+        <v>2.726267673357106</v>
       </c>
       <c r="E4">
-        <v>28.05304538644492</v>
+        <v>7.302166460723695</v>
       </c>
       <c r="F4">
-        <v>33.81170577712194</v>
+        <v>16.788695203257</v>
       </c>
       <c r="G4">
-        <v>1.95227029559935</v>
+        <v>23.05167212369721</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.979662358858578</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>31.57989849032227</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>64.79273462579749</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>32.27177872798453</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.43581903092719</v>
+        <v>12.33952629469713</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.585336293349059</v>
+        <v>13.53010624290982</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.318679342282842</v>
+        <v>2.690061231134447</v>
       </c>
       <c r="E5">
-        <v>27.34406331606909</v>
+        <v>7.296138372904356</v>
       </c>
       <c r="F5">
-        <v>32.8693372521063</v>
+        <v>16.48645088472827</v>
       </c>
       <c r="G5">
-        <v>1.958643450960728</v>
+        <v>22.53937336115887</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.925436833829419</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>31.03281287371967</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>63.35163040678259</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>31.62939868407651</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.67106754313448</v>
+        <v>12.15327760098655</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.569447981912502</v>
+        <v>13.48307170672356</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.296737489168412</v>
+        <v>2.684004165753062</v>
       </c>
       <c r="E6">
-        <v>27.22583579219502</v>
+        <v>7.295736726850903</v>
       </c>
       <c r="F6">
-        <v>32.7129905768976</v>
+        <v>16.43600717556725</v>
       </c>
       <c r="G6">
-        <v>1.95969993206693</v>
+        <v>22.45355560152267</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6.916511106637993</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>30.94122345533485</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>63.1102723898392</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>31.52145594377418</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.54417131008281</v>
+        <v>12.12231386289584</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.679318094690817</v>
+        <v>13.8063427009143</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.449494125851226</v>
+        <v>2.72578242882977</v>
       </c>
       <c r="E7">
-        <v>28.04351589619531</v>
+        <v>7.302044532487691</v>
       </c>
       <c r="F7">
-        <v>33.79898601811626</v>
+        <v>16.78463643617662</v>
       </c>
       <c r="G7">
-        <v>1.952356383516954</v>
+        <v>23.04481345862804</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.978925826347761</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>31.57257064012268</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>64.77343623635541</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>32.26320088311076</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.42549775321685</v>
+        <v>12.33701715852894</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.153286929216788</v>
+        <v>15.15394811919561</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.140069322973057</v>
+        <v>2.903287736578197</v>
       </c>
       <c r="E8">
-        <v>31.59738789034852</v>
+        <v>7.74429637144353</v>
       </c>
       <c r="F8">
-        <v>38.63256565794207</v>
+        <v>18.28360950509848</v>
       </c>
       <c r="G8">
-        <v>1.919473800258833</v>
+        <v>25.54459139847109</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.265447021478863</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>34.24710501142342</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>71.83056693008044</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>35.35124935031877</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.34682276252518</v>
+        <v>13.27722568701345</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.039917667885646</v>
+        <v>17.51629243755647</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.624857627343227</v>
+        <v>3.224324660569548</v>
       </c>
       <c r="E9">
-        <v>38.62771190943207</v>
+        <v>9.399985054105771</v>
       </c>
       <c r="F9">
-        <v>48.59070371436587</v>
+        <v>21.42740269644327</v>
       </c>
       <c r="G9">
-        <v>1.850303393379793</v>
+        <v>30.05696337107462</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.864384197937446</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>39.07135671007006</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>84.8926713749334</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>40.74711437900005</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>38.43400414762152</v>
+        <v>15.60348496141077</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.750126356939889</v>
+        <v>19.08491825087538</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.914196374928809</v>
+        <v>3.442080504328193</v>
       </c>
       <c r="E10">
-        <v>44.26827748149551</v>
+        <v>10.63485826335022</v>
       </c>
       <c r="F10">
-        <v>56.78118579977723</v>
+        <v>23.57836156479042</v>
       </c>
       <c r="G10">
-        <v>1.791734377459764</v>
+        <v>33.14247866839325</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.324776722721275</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>42.35007032985325</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>94.39162863155209</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>44.3163775442853</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>45.1067232353502</v>
+        <v>17.21233181887292</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.087109794403156</v>
+        <v>19.76324928622915</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.598304409028706</v>
+        <v>3.536968642157207</v>
       </c>
       <c r="E11">
-        <v>47.14510653546742</v>
+        <v>11.20067916206571</v>
       </c>
       <c r="F11">
-        <v>60.96704289779974</v>
+        <v>24.521896664833</v>
       </c>
       <c r="G11">
-        <v>1.761193341576697</v>
+        <v>34.49884240144038</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.538286118089722</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>43.78346653058868</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>98.85669504651368</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>45.85623893020287</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>48.52679290309235</v>
+        <v>17.91820388933213</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.213551716426553</v>
+        <v>20.01513569401371</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.881008256336592</v>
+        <v>3.572285962594977</v>
       </c>
       <c r="E12">
-        <v>48.31703192477401</v>
+        <v>11.41562808051685</v>
       </c>
       <c r="F12">
-        <v>62.66577104658554</v>
+        <v>24.87432162342222</v>
       </c>
       <c r="G12">
-        <v>1.748680494000638</v>
+        <v>35.00592743956078</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.630257447913396</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>44.31793518154727</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>100.5964962940757</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>46.42746663419086</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>49.9168938750917</v>
+        <v>18.18191382658775</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.186360616645851</v>
+        <v>19.96110763012674</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.818821683433589</v>
+        <v>3.564707289049048</v>
       </c>
       <c r="E13">
-        <v>48.05996557322391</v>
+        <v>11.36930219480687</v>
       </c>
       <c r="F13">
-        <v>62.29363841640089</v>
+        <v>24.79863452587631</v>
       </c>
       <c r="G13">
-        <v>1.751427501183588</v>
+        <v>34.89700402272308</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.603613237479088</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>44.20319715183264</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>100.2188969644865</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>46.30496823498274</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>49.61226008954036</v>
+        <v>18.12527620204622</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.097531673266877</v>
+        <v>19.78407148288177</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.621003053666577</v>
+        <v>3.539886613567252</v>
       </c>
       <c r="E14">
-        <v>47.23952471652225</v>
+        <v>11.21834859403346</v>
       </c>
       <c r="F14">
-        <v>61.10409943578993</v>
+        <v>24.55098753187225</v>
       </c>
       <c r="G14">
-        <v>1.760186326559695</v>
+        <v>34.54069007657065</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.544973123498739</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>43.82760413336848</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>98.99859921953895</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>45.9034713362521</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>48.63890126413695</v>
+        <v>17.93997046353778</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.042989167467381</v>
+        <v>19.67498546783429</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.503337470673174</v>
+        <v>3.524602787779201</v>
       </c>
       <c r="E15">
-        <v>46.74942465113588</v>
+        <v>11.12597849361648</v>
       </c>
       <c r="F15">
-        <v>60.39236085766048</v>
+        <v>24.39866722363291</v>
       </c>
       <c r="G15">
-        <v>1.765410929754563</v>
+        <v>34.32159395335893</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.510027629937195</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>43.59645982848463</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>98.25874435640269</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>45.65600046533812</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>48.0568086162906</v>
+        <v>17.82600276241632</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.727908184387719</v>
+        <v>19.03988564570884</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.872111710168875</v>
+        <v>3.435794052565624</v>
       </c>
       <c r="E16">
-        <v>44.08909472335053</v>
+        <v>10.59796933816114</v>
       </c>
       <c r="F16">
-        <v>56.52015219129988</v>
+        <v>23.51600867989589</v>
       </c>
       <c r="G16">
-        <v>1.79362523119674</v>
+        <v>33.05290711965336</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.310903458180736</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>42.25522646876573</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>94.10467869674758</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>44.2140714069296</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>44.89368242507476</v>
+        <v>17.16569070309648</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.531952574776176</v>
+        <v>18.64130400600924</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.51468920180114</v>
+        <v>3.380232771435185</v>
       </c>
       <c r="E17">
-        <v>42.5553513982231</v>
+        <v>10.27514369020362</v>
       </c>
       <c r="F17">
-        <v>54.28637849542402</v>
+        <v>22.96567688340622</v>
       </c>
       <c r="G17">
-        <v>1.809740484940938</v>
+        <v>32.26267495646857</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.189773634197326</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>41.4175438385376</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>91.60752589975041</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>43.30814208541765</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>43.07168119541274</v>
+        <v>16.75405315282099</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.418135820601638</v>
+        <v>18.40872746473489</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.317489266277826</v>
+        <v>3.347883535766179</v>
       </c>
       <c r="E18">
-        <v>41.69926316682987</v>
+        <v>10.0898355508846</v>
       </c>
       <c r="F18">
-        <v>53.04089093146798</v>
+        <v>22.64584037561928</v>
       </c>
       <c r="G18">
-        <v>1.818675025768033</v>
+        <v>31.80368901694729</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.120487062191094</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>40.93025638960723</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>90.1824259436262</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>42.77917542133231</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>42.05659588365035</v>
+        <v>16.51483286303127</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.379399191183664</v>
+        <v>18.32940784052375</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.251971699149506</v>
+        <v>3.33686386008147</v>
       </c>
       <c r="E19">
-        <v>41.41316083286095</v>
+        <v>10.0271555284152</v>
       </c>
       <c r="F19">
-        <v>52.62500919014681</v>
+        <v>22.53697814544471</v>
       </c>
       <c r="G19">
-        <v>1.821650281471996</v>
+        <v>31.64751023042601</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.097094554103933</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>40.76432897825463</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>89.70127112799914</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>42.59871470247126</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>41.71777219430285</v>
+        <v>16.43341063096355</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.552924614333762</v>
+        <v>18.68407701560935</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.55182255353558</v>
+        <v>3.386188041430462</v>
       </c>
       <c r="E20">
-        <v>42.71573813971914</v>
+        <v>10.30946996893456</v>
       </c>
       <c r="F20">
-        <v>54.51986209343644</v>
+        <v>23.02460116874916</v>
       </c>
       <c r="G20">
-        <v>1.808061536848182</v>
+        <v>32.34725694185317</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.202628533181707</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>41.50728314193911</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>91.87205129095204</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>43.40539627173456</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>43.26203605861259</v>
+        <v>16.79812595240358</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.123649044418476</v>
+        <v>19.83620580936616</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.678346196860517</v>
+        <v>3.547193834241954</v>
       </c>
       <c r="E21">
-        <v>47.47779112793386</v>
+        <v>11.26266759806999</v>
       </c>
       <c r="F21">
-        <v>61.44982527659425</v>
+        <v>24.62385830650005</v>
       </c>
       <c r="G21">
-        <v>1.757644143230699</v>
+        <v>34.64552340384145</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.561750343055943</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>43.93815042537544</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>99.35535480449393</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>46.02172182476176</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>48.92173194391102</v>
+        <v>17.99449536150626</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.490426215709153</v>
+        <v>20.56018934403517</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.565653333383427</v>
+        <v>3.648832644780561</v>
       </c>
       <c r="E22">
-        <v>51.12520074732815</v>
+        <v>11.88972465922938</v>
       </c>
       <c r="F22">
-        <v>66.70602669533945</v>
+        <v>25.64076158949403</v>
       </c>
       <c r="G22">
-        <v>1.718642829869251</v>
+        <v>36.10959670572816</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.90038002134561</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>45.49532545062856</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>104.5694707920408</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>47.66246048756553</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>53.2284902875671</v>
+        <v>18.75555719623973</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.294965268616727</v>
+        <v>20.17640915161829</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.072149652053346</v>
+        <v>3.594918443009255</v>
       </c>
       <c r="E23">
-        <v>49.10484732121192</v>
+        <v>11.55462749328334</v>
       </c>
       <c r="F23">
-        <v>63.80418661157324</v>
+        <v>25.10055330905289</v>
       </c>
       <c r="G23">
-        <v>1.740256429189884</v>
+        <v>35.33157379438808</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.709931288422988</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>44.6607415608496</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>101.739384253781</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>46.79303760627761</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>50.84921329717219</v>
+        <v>18.35121653047274</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.543446795709311</v>
+        <v>18.66475001758294</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.53500933821807</v>
+        <v>3.383496928260032</v>
       </c>
       <c r="E24">
-        <v>42.64314957639318</v>
+        <v>10.29395016599436</v>
       </c>
       <c r="F24">
-        <v>54.41418639554762</v>
+        <v>22.99797223619105</v>
       </c>
       <c r="G24">
-        <v>1.808821594553817</v>
+        <v>32.30903199397257</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.196815733517271</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>41.46672973542496</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>91.75242824835405</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>43.36145300789972</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>43.17587810522006</v>
+        <v>16.77820863834727</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.804772629722128</v>
+        <v>16.90684978109699</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.200035669494441</v>
+        <v>3.140558865943037</v>
       </c>
       <c r="E25">
-        <v>36.68595970996918</v>
+        <v>8.948591236850953</v>
       </c>
       <c r="F25">
-        <v>45.80115621421606</v>
+        <v>20.60342682899685</v>
       </c>
       <c r="G25">
-        <v>1.869897372603224</v>
+        <v>28.8773217756474</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.698635834046061</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>37.81254129226012</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>81.41253501858566</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>39.35735544162265</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>36.16632567016605</v>
+        <v>14.98704635478779</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.49998446214604</v>
+        <v>10.5777512135871</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.949624814389783</v>
+        <v>3.362394463865506</v>
       </c>
       <c r="E2">
-        <v>7.970506964879692</v>
+        <v>11.04860540404796</v>
       </c>
       <c r="F2">
-        <v>18.72685422610168</v>
+        <v>16.79084270565066</v>
       </c>
       <c r="G2">
-        <v>26.19534574115212</v>
+        <v>17.61973111071123</v>
       </c>
       <c r="H2">
-        <v>7.345680383924454</v>
+        <v>10.4599317781811</v>
       </c>
       <c r="I2">
-        <v>34.94384316069146</v>
+        <v>24.77537602406732</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>36.14308197528873</v>
+        <v>22.7778303133824</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.58203574986567</v>
+        <v>14.4824990068163</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.47503491057847</v>
+        <v>10.09165265870313</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.813232214427143</v>
+        <v>3.329972848910835</v>
       </c>
       <c r="E3">
-        <v>7.342121513039224</v>
+        <v>11.19866697865833</v>
       </c>
       <c r="F3">
-        <v>17.51957421787042</v>
+        <v>16.56556633730244</v>
       </c>
       <c r="G3">
-        <v>24.27826779146593</v>
+        <v>17.04796391240582</v>
       </c>
       <c r="H3">
-        <v>7.115863168347521</v>
+        <v>10.46809987669079</v>
       </c>
       <c r="I3">
-        <v>32.89155016520542</v>
+        <v>23.92236474027304</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>33.79635198668028</v>
+        <v>21.60504172128407</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.79473234940472</v>
+        <v>14.40037371734788</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.81008205358676</v>
+        <v>9.77972136880941</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.726267673357106</v>
+        <v>3.310152322000479</v>
       </c>
       <c r="E4">
-        <v>7.302166460723695</v>
+        <v>11.30055468126692</v>
       </c>
       <c r="F4">
-        <v>16.788695203257</v>
+        <v>16.43295368607714</v>
       </c>
       <c r="G4">
-        <v>23.05167212369721</v>
+        <v>16.69663508149155</v>
       </c>
       <c r="H4">
-        <v>6.979662358858578</v>
+        <v>10.47602578787155</v>
       </c>
       <c r="I4">
-        <v>31.57989849032227</v>
+        <v>23.38852412075184</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>32.27177872798453</v>
+        <v>20.84900971390675</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.33952629469713</v>
+        <v>14.35549443064932</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.53010624290982</v>
+        <v>9.649339327792488</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.690061231134447</v>
+        <v>3.302103992195173</v>
       </c>
       <c r="E5">
-        <v>7.296138372904356</v>
+        <v>11.34449147859242</v>
       </c>
       <c r="F5">
-        <v>16.48645088472827</v>
+        <v>16.38042326429856</v>
       </c>
       <c r="G5">
-        <v>22.53937336115887</v>
+        <v>16.55369682521483</v>
       </c>
       <c r="H5">
-        <v>6.925436833829419</v>
+        <v>10.4799854820251</v>
       </c>
       <c r="I5">
-        <v>31.03281287371967</v>
+        <v>23.16882602430515</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>31.62939868407651</v>
+        <v>20.53212769440946</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.15327760098655</v>
+        <v>14.33861496519153</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.48307170672356</v>
+        <v>9.6274959769519</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.684004165753062</v>
+        <v>3.300769508644771</v>
       </c>
       <c r="E6">
-        <v>7.295736726850903</v>
+        <v>11.35193210978269</v>
       </c>
       <c r="F6">
-        <v>16.43600717556725</v>
+        <v>16.37179395842083</v>
       </c>
       <c r="G6">
-        <v>22.45355560152267</v>
+        <v>16.52998496481043</v>
       </c>
       <c r="H6">
-        <v>6.916511106637993</v>
+        <v>10.48068699660504</v>
       </c>
       <c r="I6">
-        <v>30.94122345533485</v>
+        <v>23.13222708914376</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>31.52145594377418</v>
+        <v>20.47898665133786</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.12231386289584</v>
+        <v>14.33589762702497</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.8063427009143</v>
+        <v>9.777976050616024</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.72578242882977</v>
+        <v>3.310043654053339</v>
       </c>
       <c r="E7">
-        <v>7.302044532487691</v>
+        <v>11.30113748884144</v>
       </c>
       <c r="F7">
-        <v>16.78463643617662</v>
+        <v>16.43223903121438</v>
       </c>
       <c r="G7">
-        <v>23.04481345862804</v>
+        <v>16.69470602705082</v>
       </c>
       <c r="H7">
-        <v>6.978925826347761</v>
+        <v>10.47607623777376</v>
       </c>
       <c r="I7">
-        <v>31.57257064012268</v>
+        <v>23.38556938509171</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>32.26320088311076</v>
+        <v>20.84477137819979</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.33701715852894</v>
+        <v>14.35526106529229</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.15394811919561</v>
+        <v>10.41300428212256</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.903287736578197</v>
+        <v>3.351201722176252</v>
       </c>
       <c r="E8">
-        <v>7.74429637144353</v>
+        <v>11.09830204666442</v>
       </c>
       <c r="F8">
-        <v>18.28360950509848</v>
+        <v>16.71202892356154</v>
       </c>
       <c r="G8">
-        <v>25.54459139847109</v>
+        <v>17.4228131955012</v>
       </c>
       <c r="H8">
-        <v>7.265447021478863</v>
+        <v>10.46214289282142</v>
       </c>
       <c r="I8">
-        <v>34.24710501142342</v>
+        <v>24.48357104998238</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>35.35124935031877</v>
+        <v>22.38104315695076</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.27722568701345</v>
+        <v>14.45304078272462</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.51629243755647</v>
+        <v>11.54716175994669</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.224324660569548</v>
+        <v>3.432292822422975</v>
       </c>
       <c r="E9">
-        <v>9.399985054105771</v>
+        <v>10.77948361310689</v>
       </c>
       <c r="F9">
-        <v>21.42740269644327</v>
+        <v>17.30251008306994</v>
       </c>
       <c r="G9">
-        <v>30.05696337107462</v>
+        <v>18.83637384449622</v>
       </c>
       <c r="H9">
-        <v>7.864384197937446</v>
+        <v>10.4579903951963</v>
       </c>
       <c r="I9">
-        <v>39.07135671007006</v>
+        <v>26.54157115539382</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>40.74711437900005</v>
+        <v>25.10001136050784</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.60348496141077</v>
+        <v>14.68801227292028</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.08491825087538</v>
+        <v>12.30801962228966</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.442080504328193</v>
+        <v>3.491693821329387</v>
       </c>
       <c r="E10">
-        <v>10.63485826335022</v>
+        <v>10.59557325284718</v>
       </c>
       <c r="F10">
-        <v>23.57836156479042</v>
+        <v>17.75698726042245</v>
       </c>
       <c r="G10">
-        <v>33.14247866839325</v>
+        <v>19.85128155464474</v>
       </c>
       <c r="H10">
-        <v>8.324776722721275</v>
+        <v>10.46914288363796</v>
       </c>
       <c r="I10">
-        <v>42.35007032985325</v>
+        <v>27.97764363572612</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>44.3163775442853</v>
+        <v>26.90970817540043</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.21233181887292</v>
+        <v>14.88576867391357</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.76324928622915</v>
+        <v>12.63770905254609</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.536968642157207</v>
+        <v>3.51859276343485</v>
       </c>
       <c r="E11">
-        <v>11.20067916206571</v>
+        <v>10.52331323955317</v>
       </c>
       <c r="F11">
-        <v>24.521896664833</v>
+        <v>17.96716867180226</v>
       </c>
       <c r="G11">
-        <v>34.49884240144038</v>
+        <v>20.30511405609574</v>
       </c>
       <c r="H11">
-        <v>8.538286118089722</v>
+        <v>10.47730790584003</v>
       </c>
       <c r="I11">
-        <v>43.78346653058868</v>
+        <v>28.61131732846459</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>45.85623893020287</v>
+        <v>27.69088005555768</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.91820388933213</v>
+        <v>14.98087593346541</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.01513569401371</v>
+        <v>12.76014500190385</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.572285962594977</v>
+        <v>3.528753948018684</v>
       </c>
       <c r="E12">
-        <v>11.41562808051685</v>
+        <v>10.49762921783234</v>
       </c>
       <c r="F12">
-        <v>24.87432162342222</v>
+        <v>18.04716496312076</v>
       </c>
       <c r="G12">
-        <v>35.00592743956078</v>
+        <v>20.47563968657562</v>
       </c>
       <c r="H12">
-        <v>8.630257447913396</v>
+        <v>10.48084415879364</v>
       </c>
       <c r="I12">
-        <v>44.31793518154727</v>
+        <v>28.84823259360918</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>46.42746663419086</v>
+        <v>27.98056068825404</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.18191382658775</v>
+        <v>15.01760133069132</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.96110763012674</v>
+        <v>12.73388409595646</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.564707289049048</v>
+        <v>3.526566773891551</v>
       </c>
       <c r="E13">
-        <v>11.36930219480687</v>
+        <v>10.50308541552896</v>
       </c>
       <c r="F13">
-        <v>24.79863452587631</v>
+        <v>18.0299197190973</v>
       </c>
       <c r="G13">
-        <v>34.89700402272308</v>
+        <v>20.43897612017011</v>
       </c>
       <c r="H13">
-        <v>8.603613237479088</v>
+        <v>10.48006281052536</v>
       </c>
       <c r="I13">
-        <v>44.20319715183264</v>
+        <v>28.79734728132676</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>46.30496823498274</v>
+        <v>27.91844663812816</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.12527620204622</v>
+        <v>15.00966075967768</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.78407148288177</v>
+        <v>12.64783048013756</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.539886613567252</v>
+        <v>3.51942926917379</v>
       </c>
       <c r="E14">
-        <v>11.21834859403346</v>
+        <v>10.52116631785135</v>
       </c>
       <c r="F14">
-        <v>24.55098753187225</v>
+        <v>17.97374240183602</v>
       </c>
       <c r="G14">
-        <v>34.54069007657065</v>
+        <v>20.31917105557725</v>
       </c>
       <c r="H14">
-        <v>8.544973123498739</v>
+        <v>10.47758993346734</v>
       </c>
       <c r="I14">
-        <v>43.82760413336848</v>
+        <v>28.63087066794704</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>45.9034713362521</v>
+        <v>27.71483556360074</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.93997046353778</v>
+        <v>14.98388329459962</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.67498546783429</v>
+        <v>12.59480499716588</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.524602787779201</v>
+        <v>3.515053892635086</v>
       </c>
       <c r="E15">
-        <v>11.12597849361648</v>
+        <v>10.53246125856297</v>
       </c>
       <c r="F15">
-        <v>24.39866722363291</v>
+        <v>17.93938230750827</v>
       </c>
       <c r="G15">
-        <v>34.32159395335893</v>
+        <v>20.24560804855941</v>
       </c>
       <c r="H15">
-        <v>8.510027629937195</v>
+        <v>10.47613307500881</v>
       </c>
       <c r="I15">
-        <v>43.59645982848463</v>
+        <v>28.52849643074207</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>45.65600046533812</v>
+        <v>27.58931716270106</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.82600276241632</v>
+        <v>14.96818544599858</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.03988564570884</v>
+        <v>12.28613875786514</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.435794052565624</v>
+        <v>3.489932821933923</v>
       </c>
       <c r="E16">
-        <v>10.59796933816114</v>
+        <v>10.6005284471497</v>
       </c>
       <c r="F16">
-        <v>23.51600867989589</v>
+        <v>17.74331293927236</v>
       </c>
       <c r="G16">
-        <v>33.05290711965336</v>
+        <v>19.82144678906545</v>
       </c>
       <c r="H16">
-        <v>8.310903458180736</v>
+        <v>10.46867148308131</v>
       </c>
       <c r="I16">
-        <v>42.25522646876573</v>
+        <v>27.935817298648</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>44.2140714069296</v>
+        <v>26.85780272447634</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.16569070309648</v>
+        <v>14.87965425619749</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.64130400600924</v>
+        <v>12.09253727102384</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.380232771435185</v>
+        <v>3.474485230819086</v>
       </c>
       <c r="E17">
-        <v>10.27514369020362</v>
+        <v>10.64523404237038</v>
       </c>
       <c r="F17">
-        <v>22.96567688340622</v>
+        <v>17.62384744958011</v>
       </c>
       <c r="G17">
-        <v>32.26267495646857</v>
+        <v>19.55907596705302</v>
       </c>
       <c r="H17">
-        <v>8.189773634197326</v>
+        <v>10.4648858742495</v>
       </c>
       <c r="I17">
-        <v>41.4175438385376</v>
+        <v>27.56703857858405</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>43.30814208541765</v>
+        <v>26.39820260456051</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.75405315282099</v>
+        <v>14.82664088912529</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.40872746473489</v>
+        <v>11.97963871097446</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.347883535766179</v>
+        <v>3.465589042752897</v>
       </c>
       <c r="E18">
-        <v>10.0898355508846</v>
+        <v>10.67201833107248</v>
       </c>
       <c r="F18">
-        <v>22.64584037561928</v>
+        <v>17.55546291179498</v>
       </c>
       <c r="G18">
-        <v>31.80368901694729</v>
+        <v>19.40743864005825</v>
       </c>
       <c r="H18">
-        <v>8.120487062191094</v>
+        <v>10.4629995427043</v>
       </c>
       <c r="I18">
-        <v>40.93025638960723</v>
+        <v>27.35309326737244</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>42.77917542133231</v>
+        <v>26.12989674278003</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.51483286303127</v>
+        <v>14.79663535906128</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.32940784052375</v>
+        <v>11.9411496050057</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.33686386008147</v>
+        <v>3.462575253889002</v>
       </c>
       <c r="E19">
-        <v>10.0271555284152</v>
+        <v>10.68126973084142</v>
       </c>
       <c r="F19">
-        <v>22.53697814544471</v>
+        <v>17.53236829400953</v>
       </c>
       <c r="G19">
-        <v>31.64751023042601</v>
+        <v>19.35597819594768</v>
       </c>
       <c r="H19">
-        <v>8.097094554103933</v>
+        <v>10.4624108511124</v>
       </c>
       <c r="I19">
-        <v>40.76432897825463</v>
+        <v>27.28034744021061</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>42.59871470247126</v>
+        <v>26.03837637081958</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.43341063096355</v>
+        <v>14.78656041113835</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.68407701560935</v>
+        <v>12.11330666413242</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.386188041430462</v>
+        <v>3.476130858974398</v>
       </c>
       <c r="E20">
-        <v>10.30946996893456</v>
+        <v>10.64036394163073</v>
       </c>
       <c r="F20">
-        <v>23.02460116874916</v>
+        <v>17.63653136876093</v>
       </c>
       <c r="G20">
-        <v>32.34725694185317</v>
+        <v>19.58708271882944</v>
       </c>
       <c r="H20">
-        <v>8.202628533181707</v>
+        <v>10.46525873635407</v>
       </c>
       <c r="I20">
-        <v>41.50728314193911</v>
+        <v>27.60648718073081</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>43.40539627173456</v>
+        <v>26.44753791497165</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.79812595240358</v>
+        <v>14.83223412628382</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.83620580936616</v>
+        <v>12.67317226500905</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.547193834241954</v>
+        <v>3.521526458696195</v>
       </c>
       <c r="E21">
-        <v>11.26266759806999</v>
+        <v>10.51580962818977</v>
       </c>
       <c r="F21">
-        <v>24.62385830650005</v>
+        <v>17.99023275115675</v>
       </c>
       <c r="G21">
-        <v>34.64552340384145</v>
+        <v>20.35439832984664</v>
       </c>
       <c r="H21">
-        <v>8.561750343055943</v>
+        <v>10.47830422259939</v>
       </c>
       <c r="I21">
-        <v>43.93815042537544</v>
+        <v>28.67985312858521</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>46.02172182476176</v>
+        <v>27.77480806761729</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.99449536150626</v>
+        <v>14.9914357286352</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.56018934403517</v>
+        <v>13.02501161652216</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.648832644780561</v>
+        <v>3.551046962394086</v>
       </c>
       <c r="E22">
-        <v>11.88972465922938</v>
+        <v>10.44421247937255</v>
       </c>
       <c r="F22">
-        <v>25.64076158949403</v>
+        <v>18.22371813701005</v>
       </c>
       <c r="G22">
-        <v>36.10959670572816</v>
+        <v>20.84804702027464</v>
       </c>
       <c r="H22">
-        <v>8.90038002134561</v>
+        <v>10.48941967819591</v>
       </c>
       <c r="I22">
-        <v>45.49532545062856</v>
+        <v>29.36353649753372</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>47.66246048756553</v>
+        <v>28.60648652072245</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.75555719623973</v>
+        <v>15.09960857500772</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.17640915161829</v>
+        <v>12.83852887867384</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.594918443009255</v>
+        <v>3.535307209351442</v>
       </c>
       <c r="E23">
-        <v>11.55462749328334</v>
+        <v>10.48151490716155</v>
       </c>
       <c r="F23">
-        <v>25.10055330905289</v>
+        <v>18.09891935736739</v>
       </c>
       <c r="G23">
-        <v>35.33157379438808</v>
+        <v>20.58535569324226</v>
       </c>
       <c r="H23">
-        <v>8.709931288422988</v>
+        <v>10.483250419378</v>
       </c>
       <c r="I23">
-        <v>44.6607415608496</v>
+        <v>29.00033978324685</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>46.79303760627761</v>
+        <v>28.16589974808649</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.35121653047274</v>
+        <v>15.04150750436598</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.66475001758294</v>
+        <v>12.10392178428187</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.383496928260032</v>
+        <v>3.475386917191627</v>
       </c>
       <c r="E24">
-        <v>10.29395016599436</v>
+        <v>10.64256234497052</v>
       </c>
       <c r="F24">
-        <v>22.99797223619105</v>
+        <v>17.63079603451993</v>
       </c>
       <c r="G24">
-        <v>32.30903199397257</v>
+        <v>19.57442333276932</v>
       </c>
       <c r="H24">
-        <v>8.196815733517271</v>
+        <v>10.46508926179412</v>
       </c>
       <c r="I24">
-        <v>41.46672973542496</v>
+        <v>27.58865846035571</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>43.36145300789972</v>
+        <v>26.4252461094112</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.77820863834727</v>
+        <v>14.82970394945853</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.90684978109699</v>
+        <v>11.25277425403624</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.140558865943037</v>
+        <v>3.410357138661289</v>
       </c>
       <c r="E25">
-        <v>8.948591236850953</v>
+        <v>10.85705554993737</v>
       </c>
       <c r="F25">
-        <v>20.60342682899685</v>
+        <v>17.13878579173324</v>
       </c>
       <c r="G25">
-        <v>28.8773217756474</v>
+        <v>18.45711702608127</v>
       </c>
       <c r="H25">
-        <v>7.698635834046061</v>
+        <v>10.45662335764776</v>
       </c>
       <c r="I25">
-        <v>37.81254129226012</v>
+        <v>25.99699407541738</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>39.35735544162265</v>
+        <v>24.39693683269266</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.98704635478779</v>
+        <v>14.61993558176098</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.5777512135871</v>
+        <v>15.49998446214611</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.362394463865506</v>
+        <v>2.949624814389724</v>
       </c>
       <c r="E2">
-        <v>11.04860540404796</v>
+        <v>7.970506964879717</v>
       </c>
       <c r="F2">
-        <v>16.79084270565066</v>
+        <v>18.72685422610174</v>
       </c>
       <c r="G2">
-        <v>17.61973111071123</v>
+        <v>26.19534574115219</v>
       </c>
       <c r="H2">
-        <v>10.4599317781811</v>
+        <v>7.34568038392439</v>
       </c>
       <c r="I2">
-        <v>24.77537602406732</v>
+        <v>34.94384316069146</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>22.7778303133824</v>
+        <v>36.14308197528878</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.4824990068163</v>
+        <v>13.58203574986571</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.09165265870313</v>
+        <v>14.47503491057847</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.329972848910835</v>
+        <v>2.813232214427185</v>
       </c>
       <c r="E3">
-        <v>11.19866697865833</v>
+        <v>7.342121513039232</v>
       </c>
       <c r="F3">
-        <v>16.56556633730244</v>
+        <v>17.51957421787042</v>
       </c>
       <c r="G3">
-        <v>17.04796391240582</v>
+        <v>24.27826779146604</v>
       </c>
       <c r="H3">
-        <v>10.46809987669079</v>
+        <v>7.115863168347479</v>
       </c>
       <c r="I3">
-        <v>23.92236474027304</v>
+        <v>32.89155016520545</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>21.60504172128407</v>
+        <v>33.79635198668029</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.40037371734788</v>
+        <v>12.79473234940471</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.77972136880941</v>
+        <v>13.81008205358675</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.310152322000479</v>
+        <v>2.726267673357083</v>
       </c>
       <c r="E4">
-        <v>11.30055468126692</v>
+        <v>7.302166460723658</v>
       </c>
       <c r="F4">
-        <v>16.43295368607714</v>
+        <v>16.78869520325704</v>
       </c>
       <c r="G4">
-        <v>16.69663508149155</v>
+        <v>23.05167212369723</v>
       </c>
       <c r="H4">
-        <v>10.47602578787155</v>
+        <v>6.979662358858583</v>
       </c>
       <c r="I4">
-        <v>23.38852412075184</v>
+        <v>31.5798984903222</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.84900971390675</v>
+        <v>32.27177872798448</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.35549443064932</v>
+        <v>12.33952629469715</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.649339327792488</v>
+        <v>13.53010624290979</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.302103992195173</v>
+        <v>2.690061231134454</v>
       </c>
       <c r="E5">
-        <v>11.34449147859242</v>
+        <v>7.296138372904415</v>
       </c>
       <c r="F5">
-        <v>16.38042326429856</v>
+        <v>16.48645088472825</v>
       </c>
       <c r="G5">
-        <v>16.55369682521483</v>
+        <v>22.53937336115881</v>
       </c>
       <c r="H5">
-        <v>10.4799854820251</v>
+        <v>6.925436833829411</v>
       </c>
       <c r="I5">
-        <v>23.16882602430515</v>
+        <v>31.03281287371982</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.53212769440946</v>
+        <v>31.62939868407653</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.33861496519153</v>
+        <v>12.15327760098653</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.6274959769519</v>
+        <v>13.48307170672358</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.300769508644771</v>
+        <v>2.684004165753046</v>
       </c>
       <c r="E6">
-        <v>11.35193210978269</v>
+        <v>7.295736726850972</v>
       </c>
       <c r="F6">
-        <v>16.37179395842083</v>
+        <v>16.43600717556722</v>
       </c>
       <c r="G6">
-        <v>16.52998496481043</v>
+        <v>22.45355560152269</v>
       </c>
       <c r="H6">
-        <v>10.48068699660504</v>
+        <v>6.916511106637903</v>
       </c>
       <c r="I6">
-        <v>23.13222708914376</v>
+        <v>30.9412234553349</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.47898665133786</v>
+        <v>31.52145594377421</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.33589762702497</v>
+        <v>12.12231386289581</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.777976050616024</v>
+        <v>13.80634270091426</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.310043654053339</v>
+        <v>2.725782428829675</v>
       </c>
       <c r="E7">
-        <v>11.30113748884144</v>
+        <v>7.302044532487659</v>
       </c>
       <c r="F7">
-        <v>16.43223903121438</v>
+        <v>16.78463643617664</v>
       </c>
       <c r="G7">
-        <v>16.69470602705082</v>
+        <v>23.04481345862811</v>
       </c>
       <c r="H7">
-        <v>10.47607623777376</v>
+        <v>6.978925826347812</v>
       </c>
       <c r="I7">
-        <v>23.38556938509171</v>
+        <v>31.57257064012254</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.84477137819979</v>
+        <v>32.26320088311068</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.35526106529229</v>
+        <v>12.33701715852895</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.41300428212256</v>
+        <v>15.15394811919557</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.351201722176252</v>
+        <v>2.903287736578087</v>
       </c>
       <c r="E8">
-        <v>11.09830204666442</v>
+        <v>7.744296371443514</v>
       </c>
       <c r="F8">
-        <v>16.71202892356154</v>
+        <v>18.28360950509843</v>
       </c>
       <c r="G8">
-        <v>17.4228131955012</v>
+        <v>25.54459139847116</v>
       </c>
       <c r="H8">
-        <v>10.46214289282142</v>
+        <v>7.265447021478829</v>
       </c>
       <c r="I8">
-        <v>24.48357104998238</v>
+        <v>34.24710501142346</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>22.38104315695076</v>
+        <v>35.3512493503188</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.45304078272462</v>
+        <v>13.27722568701342</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.54716175994669</v>
+        <v>17.51629243755647</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.432292822422975</v>
+        <v>3.224324660569519</v>
       </c>
       <c r="E9">
-        <v>10.77948361310689</v>
+        <v>9.399985054105638</v>
       </c>
       <c r="F9">
-        <v>17.30251008306994</v>
+        <v>21.42740269644327</v>
       </c>
       <c r="G9">
-        <v>18.83637384449622</v>
+        <v>30.05696337107465</v>
       </c>
       <c r="H9">
-        <v>10.4579903951963</v>
+        <v>7.864384197937429</v>
       </c>
       <c r="I9">
-        <v>26.54157115539382</v>
+        <v>39.07135671006994</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>25.10001136050784</v>
+        <v>40.74711437899997</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.68801227292028</v>
+        <v>15.60348496141077</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.30801962228966</v>
+        <v>19.0849182508754</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.491693821329387</v>
+        <v>3.442080504328139</v>
       </c>
       <c r="E10">
-        <v>10.59557325284718</v>
+        <v>10.63485826335021</v>
       </c>
       <c r="F10">
-        <v>17.75698726042245</v>
+        <v>23.57836156479042</v>
       </c>
       <c r="G10">
-        <v>19.85128155464474</v>
+        <v>33.14247866839325</v>
       </c>
       <c r="H10">
-        <v>10.46914288363796</v>
+        <v>8.324776722721266</v>
       </c>
       <c r="I10">
-        <v>27.97764363572612</v>
+        <v>42.35007032985329</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>26.90970817540043</v>
+        <v>44.31637754428532</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.88576867391357</v>
+        <v>17.21233181887294</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.63770905254609</v>
+        <v>19.76324928622904</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.51859276343485</v>
+        <v>3.536968642157127</v>
       </c>
       <c r="E11">
-        <v>10.52331323955317</v>
+        <v>11.20067916206563</v>
       </c>
       <c r="F11">
-        <v>17.96716867180226</v>
+        <v>24.52189666483304</v>
       </c>
       <c r="G11">
-        <v>20.30511405609574</v>
+        <v>34.49884240144039</v>
       </c>
       <c r="H11">
-        <v>10.47730790584003</v>
+        <v>8.538286118089729</v>
       </c>
       <c r="I11">
-        <v>28.61131732846459</v>
+        <v>43.78346653058884</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>27.69088005555768</v>
+        <v>45.85623893020288</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.98087593346541</v>
+        <v>17.91820388933214</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.76014500190385</v>
+        <v>20.01513569401369</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.528753948018684</v>
+        <v>3.572285962594927</v>
       </c>
       <c r="E12">
-        <v>10.49762921783234</v>
+        <v>11.41562808051691</v>
       </c>
       <c r="F12">
-        <v>18.04716496312076</v>
+        <v>24.87432162342214</v>
       </c>
       <c r="G12">
-        <v>20.47563968657562</v>
+        <v>35.00592743956065</v>
       </c>
       <c r="H12">
-        <v>10.48084415879364</v>
+        <v>8.630257447913372</v>
       </c>
       <c r="I12">
-        <v>28.84823259360918</v>
+        <v>44.3179351815474</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>27.98056068825404</v>
+        <v>46.42746663419091</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.01760133069132</v>
+        <v>18.18191382658768</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.73388409595646</v>
+        <v>19.96110763012669</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.526566773891551</v>
+        <v>3.564707289048973</v>
       </c>
       <c r="E13">
-        <v>10.50308541552896</v>
+        <v>11.36930219480681</v>
       </c>
       <c r="F13">
-        <v>18.0299197190973</v>
+        <v>24.79863452587626</v>
       </c>
       <c r="G13">
-        <v>20.43897612017011</v>
+        <v>34.89700402272297</v>
       </c>
       <c r="H13">
-        <v>10.48006281052536</v>
+        <v>8.603613237479077</v>
       </c>
       <c r="I13">
-        <v>28.79734728132676</v>
+        <v>44.20319715183236</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>27.91844663812816</v>
+        <v>46.30496823498259</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.00966075967768</v>
+        <v>18.12527620204615</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.64783048013756</v>
+        <v>19.78407148288179</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.51942926917379</v>
+        <v>3.539886613567217</v>
       </c>
       <c r="E14">
-        <v>10.52116631785135</v>
+        <v>11.2183485940335</v>
       </c>
       <c r="F14">
-        <v>17.97374240183602</v>
+        <v>24.55098753187233</v>
       </c>
       <c r="G14">
-        <v>20.31917105557725</v>
+        <v>34.54069007657074</v>
       </c>
       <c r="H14">
-        <v>10.47758993346734</v>
+        <v>8.544973123498707</v>
       </c>
       <c r="I14">
-        <v>28.63087066794704</v>
+        <v>43.82760413336848</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>27.71483556360074</v>
+        <v>45.9034713362521</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.98388329459962</v>
+        <v>17.93997046353785</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.59480499716588</v>
+        <v>19.67498546783428</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.515053892635086</v>
+        <v>3.524602787779247</v>
       </c>
       <c r="E15">
-        <v>10.53246125856297</v>
+        <v>11.12597849361642</v>
       </c>
       <c r="F15">
-        <v>17.93938230750827</v>
+        <v>24.3986672236329</v>
       </c>
       <c r="G15">
-        <v>20.24560804855941</v>
+        <v>34.32159395335894</v>
       </c>
       <c r="H15">
-        <v>10.47613307500881</v>
+        <v>8.510027629937195</v>
       </c>
       <c r="I15">
-        <v>28.52849643074207</v>
+        <v>43.59645982848448</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>27.58931716270106</v>
+        <v>45.65600046533805</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.96818544599858</v>
+        <v>17.82600276241633</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.28613875786514</v>
+        <v>19.03988564570885</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.489932821933923</v>
+        <v>3.435794052565581</v>
       </c>
       <c r="E16">
-        <v>10.6005284471497</v>
+        <v>10.59796933816125</v>
       </c>
       <c r="F16">
-        <v>17.74331293927236</v>
+        <v>23.51600867989585</v>
       </c>
       <c r="G16">
-        <v>19.82144678906545</v>
+        <v>33.05290711965336</v>
       </c>
       <c r="H16">
-        <v>10.46867148308131</v>
+        <v>8.310903458180746</v>
       </c>
       <c r="I16">
-        <v>27.935817298648</v>
+        <v>42.25522646876584</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>26.85780272447634</v>
+        <v>44.21407140692962</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.87965425619749</v>
+        <v>17.16569070309646</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.09253727102384</v>
+        <v>18.64130400600926</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.474485230819086</v>
+        <v>3.380232771435192</v>
       </c>
       <c r="E17">
-        <v>10.64523404237038</v>
+        <v>10.27514369020367</v>
       </c>
       <c r="F17">
-        <v>17.62384744958011</v>
+        <v>22.96567688340624</v>
       </c>
       <c r="G17">
-        <v>19.55907596705302</v>
+        <v>32.26267495646854</v>
       </c>
       <c r="H17">
-        <v>10.4648858742495</v>
+        <v>8.189773634197326</v>
       </c>
       <c r="I17">
-        <v>27.56703857858405</v>
+        <v>41.41754383853773</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>26.39820260456051</v>
+        <v>43.30814208541773</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.82664088912529</v>
+        <v>16.75405315282099</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.97963871097446</v>
+        <v>18.40872746473485</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.465589042752897</v>
+        <v>3.347883535766107</v>
       </c>
       <c r="E18">
-        <v>10.67201833107248</v>
+        <v>10.08983555088458</v>
       </c>
       <c r="F18">
-        <v>17.55546291179498</v>
+        <v>22.64584037561926</v>
       </c>
       <c r="G18">
-        <v>19.40743864005825</v>
+        <v>31.80368901694718</v>
       </c>
       <c r="H18">
-        <v>10.4629995427043</v>
+        <v>8.120487062191055</v>
       </c>
       <c r="I18">
-        <v>27.35309326737244</v>
+        <v>40.93025638960729</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>26.12989674278003</v>
+        <v>42.77917542133233</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.79663535906128</v>
+        <v>16.51483286303124</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.9411496050057</v>
+        <v>18.32940784052368</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.462575253889002</v>
+        <v>3.336863860081476</v>
       </c>
       <c r="E19">
-        <v>10.68126973084142</v>
+        <v>10.02715552841518</v>
       </c>
       <c r="F19">
-        <v>17.53236829400953</v>
+        <v>22.5369781454447</v>
       </c>
       <c r="G19">
-        <v>19.35597819594768</v>
+        <v>31.647510230426</v>
       </c>
       <c r="H19">
-        <v>10.4624108511124</v>
+        <v>8.097094554103933</v>
       </c>
       <c r="I19">
-        <v>27.28034744021061</v>
+        <v>40.7643289782546</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>26.03837637081958</v>
+        <v>42.59871470247123</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.78656041113835</v>
+        <v>16.43341063096354</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.11330666413242</v>
+        <v>18.68407701560931</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.476130858974398</v>
+        <v>3.386188041430442</v>
       </c>
       <c r="E20">
-        <v>10.64036394163073</v>
+        <v>10.30946996893443</v>
       </c>
       <c r="F20">
-        <v>17.63653136876093</v>
+        <v>23.02460116874919</v>
       </c>
       <c r="G20">
-        <v>19.58708271882944</v>
+        <v>32.34725694185319</v>
       </c>
       <c r="H20">
-        <v>10.46525873635407</v>
+        <v>8.202628533181725</v>
       </c>
       <c r="I20">
-        <v>27.60648718073081</v>
+        <v>41.50728314193886</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>26.44753791497165</v>
+        <v>43.40539627173445</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.83223412628382</v>
+        <v>16.79812595240358</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.67317226500905</v>
+        <v>19.83620580936615</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.521526458696195</v>
+        <v>3.547193834241964</v>
       </c>
       <c r="E21">
-        <v>10.51580962818977</v>
+        <v>11.26266759807003</v>
       </c>
       <c r="F21">
-        <v>17.99023275115675</v>
+        <v>24.62385830650001</v>
       </c>
       <c r="G21">
-        <v>20.35439832984664</v>
+        <v>34.64552340384145</v>
       </c>
       <c r="H21">
-        <v>10.47830422259939</v>
+        <v>8.561750343055943</v>
       </c>
       <c r="I21">
-        <v>28.67985312858521</v>
+        <v>43.93815042537538</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>27.77480806761729</v>
+        <v>46.02172182476172</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.9914357286352</v>
+        <v>17.99449536150624</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.02501161652216</v>
+        <v>20.56018934403523</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.551046962394086</v>
+        <v>3.648832644780621</v>
       </c>
       <c r="E22">
-        <v>10.44421247937255</v>
+        <v>11.88972465922947</v>
       </c>
       <c r="F22">
-        <v>18.22371813701005</v>
+        <v>25.64076158949404</v>
       </c>
       <c r="G22">
-        <v>20.84804702027464</v>
+        <v>36.10959670572824</v>
       </c>
       <c r="H22">
-        <v>10.48941967819591</v>
+        <v>8.900380021345621</v>
       </c>
       <c r="I22">
-        <v>29.36353649753372</v>
+        <v>45.49532545062861</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>28.60648652072245</v>
+        <v>47.66246048756559</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.09960857500772</v>
+        <v>18.75555719623976</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.83852887867384</v>
+        <v>20.1764091516183</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.535307209351442</v>
+        <v>3.594918443009218</v>
       </c>
       <c r="E23">
-        <v>10.48151490716155</v>
+        <v>11.5546274932834</v>
       </c>
       <c r="F23">
-        <v>18.09891935736739</v>
+        <v>25.10055330905298</v>
       </c>
       <c r="G23">
-        <v>20.58535569324226</v>
+        <v>35.33157379438821</v>
       </c>
       <c r="H23">
-        <v>10.483250419378</v>
+        <v>8.709931288423006</v>
       </c>
       <c r="I23">
-        <v>29.00033978324685</v>
+        <v>44.66074156084976</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>28.16589974808649</v>
+        <v>46.79303760627769</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.04150750436598</v>
+        <v>18.3512165304728</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.10392178428187</v>
+        <v>18.66475001758288</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.475386917191627</v>
+        <v>3.383496928259964</v>
       </c>
       <c r="E24">
-        <v>10.64256234497052</v>
+        <v>10.29395016599429</v>
       </c>
       <c r="F24">
-        <v>17.63079603451993</v>
+        <v>22.99797223619107</v>
       </c>
       <c r="G24">
-        <v>19.57442333276932</v>
+        <v>32.30903199397252</v>
       </c>
       <c r="H24">
-        <v>10.46508926179412</v>
+        <v>8.196815733517271</v>
       </c>
       <c r="I24">
-        <v>27.58865846035571</v>
+        <v>41.46672973542486</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>26.4252461094112</v>
+        <v>43.36145300789964</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.82970394945853</v>
+        <v>16.77820863834725</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.25277425403624</v>
+        <v>16.90684978109689</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.410357138661289</v>
+        <v>3.140558865943023</v>
       </c>
       <c r="E25">
-        <v>10.85705554993737</v>
+        <v>8.948591236850888</v>
       </c>
       <c r="F25">
-        <v>17.13878579173324</v>
+        <v>20.60342682899686</v>
       </c>
       <c r="G25">
-        <v>18.45711702608127</v>
+        <v>28.87732177564743</v>
       </c>
       <c r="H25">
-        <v>10.45662335764776</v>
+        <v>7.698635834046021</v>
       </c>
       <c r="I25">
-        <v>25.99699407541738</v>
+        <v>37.81254129226008</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>24.39693683269266</v>
+        <v>39.35735544162257</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.61993558176098</v>
+        <v>14.98704635478781</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.49998446214611</v>
+        <v>7.717109540153522</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.949624814389724</v>
+        <v>4.718615231924384</v>
       </c>
       <c r="E2">
-        <v>7.970506964879717</v>
+        <v>29.32682520016946</v>
       </c>
       <c r="F2">
-        <v>18.72685422610174</v>
+        <v>15.6359625932522</v>
       </c>
       <c r="G2">
-        <v>26.19534574115219</v>
+        <v>18.57779259170464</v>
       </c>
       <c r="H2">
-        <v>7.34568038392439</v>
+        <v>3.229955768264482</v>
       </c>
       <c r="I2">
-        <v>34.94384316069146</v>
+        <v>3.371300650396878</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.63023533684062</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.63047099641332</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>36.14308197528878</v>
+        <v>18.76132261492953</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.58203574986571</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.1300137499788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.47503491057847</v>
+        <v>7.257665653311992</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.813232214427185</v>
+        <v>4.505340950963227</v>
       </c>
       <c r="E3">
-        <v>7.342121513039232</v>
+        <v>27.47888291720745</v>
       </c>
       <c r="F3">
-        <v>17.51957421787042</v>
+        <v>15.20727086152391</v>
       </c>
       <c r="G3">
-        <v>24.27826779146604</v>
+        <v>17.98418481621603</v>
       </c>
       <c r="H3">
-        <v>7.115863168347479</v>
+        <v>2.997744551638804</v>
       </c>
       <c r="I3">
-        <v>32.89155016520545</v>
+        <v>3.464571528239674</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.645469875278684</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.82641855057945</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>33.79635198668029</v>
+        <v>17.73234221171669</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.79473234940471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.02704216532962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.81008205358675</v>
+        <v>6.955623297077105</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.726267673357083</v>
+        <v>4.36872345758212</v>
       </c>
       <c r="E4">
-        <v>7.302166460723658</v>
+        <v>26.28121515837555</v>
       </c>
       <c r="F4">
-        <v>16.78869520325704</v>
+        <v>14.9488108297359</v>
       </c>
       <c r="G4">
-        <v>23.05167212369723</v>
+        <v>17.6257375544923</v>
       </c>
       <c r="H4">
-        <v>6.979662358858583</v>
+        <v>2.850204636037794</v>
       </c>
       <c r="I4">
-        <v>31.5798984903222</v>
+        <v>3.52447883979636</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.658473085526103</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.95293100726277</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>32.27177872798448</v>
+        <v>17.07257654462977</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.33952629469715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>11.97129851721849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.53010624290979</v>
+        <v>6.816182429978748</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.690061231134454</v>
+        <v>4.312888008271132</v>
       </c>
       <c r="E5">
-        <v>7.296138372904415</v>
+        <v>25.77732340124475</v>
       </c>
       <c r="F5">
-        <v>16.48645088472825</v>
+        <v>14.83807552217956</v>
       </c>
       <c r="G5">
-        <v>22.53937336115881</v>
+        <v>17.46904606318846</v>
       </c>
       <c r="H5">
-        <v>6.925436833829411</v>
+        <v>2.788807584918769</v>
       </c>
       <c r="I5">
-        <v>31.03281287371982</v>
+        <v>3.552326839037962</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.662653701909945</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.00830835126273</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>31.62939868407653</v>
+        <v>16.80662538747364</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.15327760098653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>11.945340618095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.48307170672358</v>
+        <v>6.778813924866496</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.684004165753046</v>
+        <v>4.305035646956689</v>
       </c>
       <c r="E6">
-        <v>7.295736726850972</v>
+        <v>25.69268811785712</v>
       </c>
       <c r="F6">
-        <v>16.43600717556722</v>
+        <v>14.81155183793154</v>
       </c>
       <c r="G6">
-        <v>22.45355560152269</v>
+        <v>17.42809839896572</v>
       </c>
       <c r="H6">
-        <v>6.916511106637903</v>
+        <v>2.778529542558174</v>
       </c>
       <c r="I6">
-        <v>30.9412234553349</v>
+        <v>3.560527548252283</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.66095587621223</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.02048303707719</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>31.52145594377421</v>
+        <v>16.77403602374154</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.12231386289581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>11.93494735938988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.80634270091426</v>
+        <v>6.916590503627716</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.725782428829675</v>
+        <v>4.372025424412769</v>
       </c>
       <c r="E7">
-        <v>7.302044532487659</v>
+        <v>26.27446298471655</v>
       </c>
       <c r="F7">
-        <v>16.78463643617664</v>
+        <v>14.92511535158148</v>
       </c>
       <c r="G7">
-        <v>23.04481345862811</v>
+        <v>17.5830676792771</v>
       </c>
       <c r="H7">
-        <v>6.978925826347812</v>
+        <v>2.849369443466537</v>
       </c>
       <c r="I7">
-        <v>31.57257064012254</v>
+        <v>3.534172362003665</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.651871906476562</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.96179250418051</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>32.26320088311068</v>
+        <v>17.10115328208452</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.33701715852895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>11.95412196705849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.15394811919557</v>
+        <v>7.517210189123618</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.903287736578087</v>
+        <v>4.651396161430816</v>
       </c>
       <c r="E8">
-        <v>7.744296371443514</v>
+        <v>28.70274380391252</v>
       </c>
       <c r="F8">
-        <v>18.28360950509843</v>
+        <v>15.45904672704085</v>
       </c>
       <c r="G8">
-        <v>25.54459139847116</v>
+        <v>18.32075050827156</v>
       </c>
       <c r="H8">
-        <v>7.265447021478829</v>
+        <v>3.150907665703472</v>
       </c>
       <c r="I8">
-        <v>34.24710501142346</v>
+        <v>3.414592775829381</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.626002141842718</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.70880808485349</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>35.3512493503188</v>
+        <v>18.45238895878684</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.27722568701342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.07111383056395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.51629243755647</v>
+        <v>8.595394877355686</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.224324660569519</v>
+        <v>5.146226054273169</v>
       </c>
       <c r="E9">
-        <v>9.399985054105638</v>
+        <v>32.96472086478383</v>
       </c>
       <c r="F9">
-        <v>21.42740269644327</v>
+        <v>16.57660154701135</v>
       </c>
       <c r="G9">
-        <v>30.05696337107465</v>
+        <v>19.87675885502815</v>
       </c>
       <c r="H9">
-        <v>7.864384197937429</v>
+        <v>3.703819004419942</v>
       </c>
       <c r="I9">
-        <v>39.07135671006994</v>
+        <v>3.1857155138601</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.617695929015576</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.24676313621803</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>40.74711437899997</v>
+        <v>20.82261985543419</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.60348496141077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.39178141018465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.0849182508754</v>
+        <v>9.292937223332331</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.442080504328139</v>
+        <v>5.509146592612521</v>
       </c>
       <c r="E10">
-        <v>10.63485826335021</v>
+        <v>34.91579244793618</v>
       </c>
       <c r="F10">
-        <v>23.57836156479042</v>
+        <v>17.28220145498372</v>
       </c>
       <c r="G10">
-        <v>33.14247866839325</v>
+        <v>20.80138777313459</v>
       </c>
       <c r="H10">
-        <v>8.324776722721266</v>
+        <v>4.051683947558127</v>
       </c>
       <c r="I10">
-        <v>42.35007032985329</v>
+        <v>3.037193585860855</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.594397531642164</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.96463661419983</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>44.31637754428532</v>
+        <v>22.41059670956154</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.21233181887294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.56801875946129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.76324928622904</v>
+        <v>9.700658680924169</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.536968642157127</v>
+        <v>5.906659743932669</v>
       </c>
       <c r="E11">
-        <v>11.20067916206563</v>
+        <v>28.29245122055429</v>
       </c>
       <c r="F11">
-        <v>24.52189666483304</v>
+        <v>16.53985257718488</v>
       </c>
       <c r="G11">
-        <v>34.49884240144039</v>
+        <v>19.29169588460836</v>
       </c>
       <c r="H11">
-        <v>8.538286118089729</v>
+        <v>4.413081508739804</v>
       </c>
       <c r="I11">
-        <v>43.78346653058884</v>
+        <v>3.005798814556065</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.273140896996693</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.05088959583611</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>45.85623893020288</v>
+        <v>22.94434826164159</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.91820388933214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.83095897595864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.01513569401369</v>
+        <v>9.951745819395768</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.572285962594927</v>
+        <v>6.164712938327979</v>
       </c>
       <c r="E12">
-        <v>11.41562808051691</v>
+        <v>22.32816565071501</v>
       </c>
       <c r="F12">
-        <v>24.87432162342214</v>
+        <v>15.77663434025355</v>
       </c>
       <c r="G12">
-        <v>35.00592743956065</v>
+        <v>17.84915383944137</v>
       </c>
       <c r="H12">
-        <v>8.630257447913372</v>
+        <v>5.234677035220304</v>
       </c>
       <c r="I12">
-        <v>44.3179351815474</v>
+        <v>2.991973450235966</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.013168288446693</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.18692588974067</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>46.42746663419091</v>
+        <v>23.03365366388074</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.18191382658768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.18475250252918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.96110763012669</v>
+        <v>10.06174995718831</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.564707289048973</v>
+        <v>6.342112782128175</v>
       </c>
       <c r="E13">
-        <v>11.36930219480681</v>
+        <v>16.39599281146201</v>
       </c>
       <c r="F13">
-        <v>24.79863452587626</v>
+        <v>14.90422992382696</v>
       </c>
       <c r="G13">
-        <v>34.89700402272297</v>
+        <v>16.28211584091205</v>
       </c>
       <c r="H13">
-        <v>8.603613237479077</v>
+        <v>6.271843633862654</v>
       </c>
       <c r="I13">
-        <v>44.20319715183236</v>
+        <v>3.005120525625812</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.775331586490983</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.37711305586293</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>46.30496823498259</v>
+        <v>22.82895666192224</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.12527620204615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.54142309851083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.78407148288179</v>
+        <v>10.06833603100737</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.539886613567217</v>
+        <v>6.43278602621771</v>
       </c>
       <c r="E14">
-        <v>11.2183485940335</v>
+        <v>12.31681621406874</v>
       </c>
       <c r="F14">
-        <v>24.55098753187233</v>
+        <v>14.23196221549635</v>
       </c>
       <c r="G14">
-        <v>34.54069007657074</v>
+        <v>15.105812478269</v>
       </c>
       <c r="H14">
-        <v>8.544973123498707</v>
+        <v>7.081668340555629</v>
       </c>
       <c r="I14">
-        <v>43.82760413336848</v>
+        <v>3.029209142050316</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.619063792525822</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.53998615922336</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>45.9034713362521</v>
+        <v>22.55853998971483</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.93997046353785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.09051345608536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.67498546783428</v>
+        <v>10.02794230443052</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.524602787779247</v>
+        <v>6.439204428965393</v>
       </c>
       <c r="E15">
-        <v>11.12597849361642</v>
+        <v>11.33983223391024</v>
       </c>
       <c r="F15">
-        <v>24.3986672236329</v>
+        <v>14.03870486999585</v>
       </c>
       <c r="G15">
-        <v>34.32159395335894</v>
+        <v>14.78062429495446</v>
       </c>
       <c r="H15">
-        <v>8.510027629937195</v>
+        <v>7.268627074564363</v>
       </c>
       <c r="I15">
-        <v>43.59645982848448</v>
+        <v>3.045351270980652</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.584534057207526</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.59606702271441</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>45.65600046533805</v>
+        <v>22.43865936223989</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.82600276241633</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>9.978123760815484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.03988564570885</v>
+        <v>9.712426567390144</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.435794052565581</v>
+        <v>6.266601763199271</v>
       </c>
       <c r="E16">
-        <v>10.59796933816125</v>
+        <v>11.25059267549852</v>
       </c>
       <c r="F16">
-        <v>23.51600867989585</v>
+        <v>13.86059549618493</v>
       </c>
       <c r="G16">
-        <v>33.05290711965336</v>
+        <v>14.59694525318189</v>
       </c>
       <c r="H16">
-        <v>8.310903458180746</v>
+        <v>6.996406104074833</v>
       </c>
       <c r="I16">
-        <v>42.25522646876584</v>
+        <v>3.111083878347362</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.640583471415222</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.66032031545293</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>44.21407140692962</v>
+        <v>21.83276515012545</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.16569070309646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.01686463707947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.64130400600926</v>
+        <v>9.459056350210208</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.380232771435192</v>
+        <v>6.081362085749585</v>
       </c>
       <c r="E17">
-        <v>10.27514369020367</v>
+        <v>13.38397498023537</v>
       </c>
       <c r="F17">
-        <v>22.96567688340624</v>
+        <v>14.09344512904347</v>
       </c>
       <c r="G17">
-        <v>32.26267495646854</v>
+        <v>15.10446952028415</v>
       </c>
       <c r="H17">
-        <v>8.189773634197326</v>
+        <v>6.307403205461874</v>
       </c>
       <c r="I17">
-        <v>41.41754383853773</v>
+        <v>3.1496487394845</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.765760348612545</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.62704983481052</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>43.30814208541773</v>
+        <v>21.50983960450121</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.75405315282099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.28667152711925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.40872746473485</v>
+        <v>9.261905222565661</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.347883535766107</v>
+        <v>5.863111550026961</v>
       </c>
       <c r="E18">
-        <v>10.08983555088458</v>
+        <v>17.9642150697426</v>
       </c>
       <c r="F18">
-        <v>22.64584037561926</v>
+        <v>14.71507352159768</v>
       </c>
       <c r="G18">
-        <v>31.80368901694718</v>
+        <v>16.2825194677478</v>
       </c>
       <c r="H18">
-        <v>8.120487062191055</v>
+        <v>5.267927455457807</v>
       </c>
       <c r="I18">
-        <v>40.93025638960729</v>
+        <v>3.158212699379131</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.969062256348449</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.49775165613239</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>42.77917542133233</v>
+        <v>21.38076057181244</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.51483286303124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.79593904078237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.32940784052368</v>
+        <v>9.073413204679944</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.336863860081476</v>
+        <v>5.644525489345799</v>
       </c>
       <c r="E19">
-        <v>10.02715552841518</v>
+        <v>24.24775163559961</v>
       </c>
       <c r="F19">
-        <v>22.5369781454447</v>
+        <v>15.55756615622766</v>
       </c>
       <c r="G19">
-        <v>31.647510230426</v>
+        <v>17.83365868900591</v>
       </c>
       <c r="H19">
-        <v>8.097094554103933</v>
+        <v>4.278902775594609</v>
       </c>
       <c r="I19">
-        <v>40.7643289782546</v>
+        <v>3.159537187960298</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.211819209846136</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.35050914073307</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>42.59871470247123</v>
+        <v>21.47273819714159</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.43341063096354</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.43616746594078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.68407701560931</v>
+        <v>9.02689619925583</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.386188041430442</v>
+        <v>5.428058404137899</v>
       </c>
       <c r="E20">
-        <v>10.30946996893443</v>
+        <v>34.37581338588498</v>
       </c>
       <c r="F20">
-        <v>23.02460116874919</v>
+        <v>17.03144533395137</v>
       </c>
       <c r="G20">
-        <v>32.34725694185319</v>
+        <v>20.44141422326828</v>
       </c>
       <c r="H20">
-        <v>8.202628533181725</v>
+        <v>3.959282413944715</v>
       </c>
       <c r="I20">
-        <v>41.50728314193886</v>
+        <v>3.105217097763584</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.577685083397961</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.07516849427348</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>43.40539627173445</v>
+        <v>22.08357946272411</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.79812595240358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.46662715598064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.83620580936615</v>
+        <v>9.527506156330956</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.547193834241964</v>
+        <v>5.651981791900763</v>
       </c>
       <c r="E21">
-        <v>11.26266759807003</v>
+        <v>37.14609425486077</v>
       </c>
       <c r="F21">
-        <v>24.62385830650001</v>
+        <v>17.77705588826294</v>
       </c>
       <c r="G21">
-        <v>34.64552340384145</v>
+        <v>21.52161519455278</v>
       </c>
       <c r="H21">
-        <v>8.561750343055943</v>
+        <v>4.276993950866105</v>
       </c>
       <c r="I21">
-        <v>43.93815042537538</v>
+        <v>2.985731568109087</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.626135161362334</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.83702634832737</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>46.02172182476172</v>
+        <v>23.27096600914024</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.99449536150624</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.77062903813494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.56018934403523</v>
+        <v>9.88022735129908</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.648832644780621</v>
+        <v>5.802554679528904</v>
       </c>
       <c r="E22">
-        <v>11.88972465922947</v>
+        <v>38.44819757479041</v>
       </c>
       <c r="F22">
-        <v>25.64076158949404</v>
+        <v>18.22637275668285</v>
       </c>
       <c r="G22">
-        <v>36.10959670572824</v>
+        <v>22.156293836142</v>
       </c>
       <c r="H22">
-        <v>8.900380021345621</v>
+        <v>4.461813383179935</v>
       </c>
       <c r="I22">
-        <v>45.49532545062861</v>
+        <v>2.89868918140438</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.652566247213001</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.68048997820393</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>47.66246048756559</v>
+        <v>23.97725825562091</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.75555719623976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.94929558386073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.1764091516183</v>
+        <v>9.725730543335761</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.594918443009218</v>
+        <v>5.718813900441278</v>
       </c>
       <c r="E23">
-        <v>11.5546274932834</v>
+        <v>37.75809411600704</v>
       </c>
       <c r="F23">
-        <v>25.10055330905298</v>
+        <v>18.00769333117559</v>
       </c>
       <c r="G23">
-        <v>35.33157379438821</v>
+        <v>21.85512366041612</v>
       </c>
       <c r="H23">
-        <v>8.709931288423006</v>
+        <v>4.363439771800785</v>
       </c>
       <c r="I23">
-        <v>44.66074156084976</v>
+        <v>2.933374719554976</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.645426161531043</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.74797557192534</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>46.79303760627769</v>
+        <v>23.57364861701222</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.3512165304728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.87083123600864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.66475001758288</v>
+        <v>9.056407132651604</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.383496928259964</v>
+        <v>5.396308317624941</v>
       </c>
       <c r="E24">
-        <v>10.29395016599429</v>
+        <v>35.03591026642051</v>
       </c>
       <c r="F24">
-        <v>22.99797223619107</v>
+        <v>17.14934667745725</v>
       </c>
       <c r="G24">
-        <v>32.30903199397252</v>
+        <v>20.65990139786449</v>
       </c>
       <c r="H24">
-        <v>8.196815733517271</v>
+        <v>3.983849762725034</v>
       </c>
       <c r="I24">
-        <v>41.46672973542486</v>
+        <v>3.087276155414951</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.616321083376089</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.04238584021767</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>43.36145300789964</v>
+        <v>22.03532378475313</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.77820863834725</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.56330927005065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.90684978109689</v>
+        <v>8.264361334609372</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.140558865943023</v>
+        <v>5.024034608433364</v>
       </c>
       <c r="E25">
-        <v>8.948591236850888</v>
+        <v>31.86518945101685</v>
       </c>
       <c r="F25">
-        <v>20.60342682899686</v>
+        <v>16.23523302767266</v>
       </c>
       <c r="G25">
-        <v>28.87732177564743</v>
+        <v>19.38712260492952</v>
       </c>
       <c r="H25">
-        <v>7.698635834046021</v>
+        <v>3.558242709569728</v>
       </c>
       <c r="I25">
-        <v>37.81254129226008</v>
+        <v>3.261863595853608</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.604709550875886</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.38548266923933</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>39.35735544162257</v>
+        <v>20.25657168136525</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.98704635478781</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.26922224184181</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.717109540153522</v>
+        <v>8.043993566630718</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.718615231924384</v>
+        <v>4.685299019795763</v>
       </c>
       <c r="E2">
-        <v>29.32682520016946</v>
+        <v>29.31109600844927</v>
       </c>
       <c r="F2">
-        <v>15.6359625932522</v>
+        <v>15.89559869058044</v>
       </c>
       <c r="G2">
-        <v>18.57779259170464</v>
+        <v>18.38198713490685</v>
       </c>
       <c r="H2">
-        <v>3.229955768264482</v>
+        <v>3.220188566612436</v>
       </c>
       <c r="I2">
-        <v>3.371300650396878</v>
+        <v>3.11214198969562</v>
       </c>
       <c r="J2">
-        <v>7.63023533684062</v>
+        <v>8.383099695120993</v>
       </c>
       <c r="K2">
-        <v>13.63047099641332</v>
+        <v>12.99810938471748</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.43711166637012</v>
       </c>
       <c r="M2">
-        <v>18.76132261492953</v>
+        <v>8.736154337648577</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>18.31452890614622</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.1300137499788</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.34504189716758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.257665653311992</v>
+        <v>7.614710373162471</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.505340950963227</v>
+        <v>4.468518825337494</v>
       </c>
       <c r="E3">
-        <v>27.47888291720745</v>
+        <v>27.46748441354494</v>
       </c>
       <c r="F3">
-        <v>15.20727086152391</v>
+        <v>15.46928495656118</v>
       </c>
       <c r="G3">
-        <v>17.98418481621603</v>
+        <v>17.75835722301807</v>
       </c>
       <c r="H3">
-        <v>2.997744551638804</v>
+        <v>2.990795196805083</v>
       </c>
       <c r="I3">
-        <v>3.464571528239674</v>
+        <v>3.189414315215975</v>
       </c>
       <c r="J3">
-        <v>7.645469875278684</v>
+        <v>8.369225857961293</v>
       </c>
       <c r="K3">
-        <v>13.82641855057945</v>
+        <v>13.17074417353999</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.52549756781583</v>
       </c>
       <c r="M3">
-        <v>17.73234221171669</v>
+        <v>8.966170429701997</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>17.26251409678863</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.02704216532962</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.23739060019826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.955623297077105</v>
+        <v>7.332145701576498</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.36872345758212</v>
+        <v>4.329676019383672</v>
       </c>
       <c r="E4">
-        <v>26.28121515837555</v>
+        <v>26.2725985440126</v>
       </c>
       <c r="F4">
-        <v>14.9488108297359</v>
+        <v>15.21096017740119</v>
       </c>
       <c r="G4">
-        <v>17.6257375544923</v>
+        <v>17.3817580005279</v>
       </c>
       <c r="H4">
-        <v>2.850204636037794</v>
+        <v>2.845025374325557</v>
       </c>
       <c r="I4">
-        <v>3.52447883979636</v>
+        <v>3.239398052913354</v>
       </c>
       <c r="J4">
-        <v>7.658473085526103</v>
+        <v>8.362293477883359</v>
       </c>
       <c r="K4">
-        <v>13.95293100726277</v>
+        <v>13.28294670856515</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.59678535120366</v>
       </c>
       <c r="M4">
-        <v>17.07257654462977</v>
+        <v>9.114358691811352</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>16.58757118264699</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.97129851721849</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.177605055238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.816182429978748</v>
+        <v>7.202390394392408</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.312888008271132</v>
+        <v>4.272757574355293</v>
       </c>
       <c r="E5">
-        <v>25.77732340124475</v>
+        <v>25.76986913908518</v>
       </c>
       <c r="F5">
-        <v>14.83807552217956</v>
+        <v>15.10071150659217</v>
       </c>
       <c r="G5">
-        <v>17.46904606318846</v>
+        <v>17.21883911125577</v>
       </c>
       <c r="H5">
-        <v>2.788807584918769</v>
+        <v>2.784356326267316</v>
       </c>
       <c r="I5">
-        <v>3.552326839037962</v>
+        <v>3.26368300849599</v>
       </c>
       <c r="J5">
-        <v>7.662653701909945</v>
+        <v>8.358148114735107</v>
       </c>
       <c r="K5">
-        <v>14.00830835126273</v>
+        <v>13.33103099999003</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.62772310895025</v>
       </c>
       <c r="M5">
-        <v>16.80662538747364</v>
+        <v>9.180195452281675</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.31404739207335</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.945340618095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.15027000351825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.778813924866496</v>
+        <v>7.16852206072612</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.305035646956689</v>
+        <v>4.264526012190594</v>
       </c>
       <c r="E6">
-        <v>25.69268811785712</v>
+        <v>25.68542083502573</v>
       </c>
       <c r="F6">
-        <v>14.81155183793154</v>
+        <v>15.07520275076713</v>
       </c>
       <c r="G6">
-        <v>17.42809839896572</v>
+        <v>17.17822617511959</v>
       </c>
       <c r="H6">
-        <v>2.778529542558174</v>
+        <v>2.774194870623099</v>
       </c>
       <c r="I6">
-        <v>3.560527548252283</v>
+        <v>3.271960884252026</v>
       </c>
       <c r="J6">
-        <v>7.66095587621223</v>
+        <v>8.355397133719073</v>
       </c>
       <c r="K6">
-        <v>14.02048303707719</v>
+        <v>13.34020314418097</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.63039092671175</v>
       </c>
       <c r="M6">
-        <v>16.77403602374154</v>
+        <v>9.195754878234059</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>16.27877666931208</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.93494735938988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.14031588457103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.916590503627716</v>
+        <v>7.302212499868729</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.372025424412769</v>
+        <v>4.335913865661041</v>
       </c>
       <c r="E7">
-        <v>26.27446298471655</v>
+        <v>26.265189901445</v>
       </c>
       <c r="F7">
-        <v>14.92511535158148</v>
+        <v>15.17364112267619</v>
       </c>
       <c r="G7">
-        <v>17.5830676792771</v>
+        <v>17.43765392770512</v>
       </c>
       <c r="H7">
-        <v>2.849369443466537</v>
+        <v>2.843795732060709</v>
       </c>
       <c r="I7">
-        <v>3.534172362003665</v>
+        <v>3.250958358224167</v>
       </c>
       <c r="J7">
-        <v>7.651871906476562</v>
+        <v>8.316990454980063</v>
       </c>
       <c r="K7">
-        <v>13.96179250418051</v>
+        <v>13.28735838820051</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.59002022701595</v>
       </c>
       <c r="M7">
-        <v>17.10115328208452</v>
+        <v>9.128592520468937</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>16.60812117554183</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11.95412196705849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.15040450265328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.517210189123618</v>
+        <v>7.872614622822556</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.651396161430816</v>
+        <v>4.627270128483129</v>
       </c>
       <c r="E8">
-        <v>28.70274380391252</v>
+        <v>28.68650594478108</v>
       </c>
       <c r="F8">
-        <v>15.45904672704085</v>
+        <v>15.67095026865956</v>
       </c>
       <c r="G8">
-        <v>18.32075050827156</v>
+        <v>18.42283229553269</v>
       </c>
       <c r="H8">
-        <v>3.150907665703472</v>
+        <v>3.140880723622543</v>
       </c>
       <c r="I8">
-        <v>3.414592775829381</v>
+        <v>3.152652300280159</v>
       </c>
       <c r="J8">
-        <v>7.626002141842718</v>
+        <v>8.24111424482056</v>
       </c>
       <c r="K8">
-        <v>13.70880808485349</v>
+        <v>13.06483608551099</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.45974864189806</v>
       </c>
       <c r="M8">
-        <v>18.45238895878684</v>
+        <v>8.832075767959106</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>17.98033799582695</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.07111383056395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.24828693271605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.595394877355686</v>
+        <v>8.877646508097364</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.146226054273169</v>
+        <v>5.132856725811408</v>
       </c>
       <c r="E9">
-        <v>32.96472086478383</v>
+        <v>32.93798119673427</v>
       </c>
       <c r="F9">
-        <v>16.57660154701135</v>
+        <v>16.76262451729399</v>
       </c>
       <c r="G9">
-        <v>19.87675885502815</v>
+        <v>20.10549622494672</v>
       </c>
       <c r="H9">
-        <v>3.703819004419942</v>
+        <v>3.686781967845859</v>
       </c>
       <c r="I9">
-        <v>3.1857155138601</v>
+        <v>2.961356794032846</v>
       </c>
       <c r="J9">
-        <v>7.617695929015576</v>
+        <v>8.256626306965265</v>
       </c>
       <c r="K9">
-        <v>13.24676313621803</v>
+        <v>12.66873717886924</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.34895270789172</v>
       </c>
       <c r="M9">
-        <v>20.82261985543419</v>
+        <v>8.281432953834903</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>20.40406894623485</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.39178141018465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.56239594748357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.292937223332331</v>
+        <v>9.555705824491593</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.509146592612521</v>
+        <v>5.51872981579637</v>
       </c>
       <c r="E10">
-        <v>34.91579244793618</v>
+        <v>34.87887559723355</v>
       </c>
       <c r="F10">
-        <v>17.28220145498372</v>
+        <v>17.36864374957336</v>
       </c>
       <c r="G10">
-        <v>20.80138777313459</v>
+        <v>21.59499413702606</v>
       </c>
       <c r="H10">
-        <v>4.051683947558127</v>
+        <v>4.027996009705608</v>
       </c>
       <c r="I10">
-        <v>3.037193585860855</v>
+        <v>2.841538635154845</v>
       </c>
       <c r="J10">
-        <v>7.594397531642164</v>
+        <v>8.026140615944275</v>
       </c>
       <c r="K10">
-        <v>12.96463661419983</v>
+        <v>12.43572046165858</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.37507626903773</v>
       </c>
       <c r="M10">
-        <v>22.41059670956154</v>
+        <v>7.927129519470472</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>21.99794400694389</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.56801875946129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.66802054411713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.700658680924169</v>
+        <v>10.06084005009567</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.906659743932669</v>
+        <v>5.946332690104621</v>
       </c>
       <c r="E11">
-        <v>28.29245122055429</v>
+        <v>28.2456930410624</v>
       </c>
       <c r="F11">
-        <v>16.53985257718488</v>
+        <v>16.48866936390287</v>
       </c>
       <c r="G11">
-        <v>19.29169588460836</v>
+        <v>21.17957749683312</v>
       </c>
       <c r="H11">
-        <v>4.413081508739804</v>
+        <v>4.387907937925178</v>
       </c>
       <c r="I11">
-        <v>3.005798814556065</v>
+        <v>2.824507128711253</v>
       </c>
       <c r="J11">
-        <v>7.273140896996693</v>
+        <v>7.344871520156243</v>
       </c>
       <c r="K11">
-        <v>13.05088959583611</v>
+        <v>12.50448623003125</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.54134086862816</v>
       </c>
       <c r="M11">
-        <v>22.94434826164159</v>
+        <v>7.893004880741569</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>22.43974898817555</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.83095897595864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.82865600710817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.951745819395768</v>
+        <v>10.38017743727536</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.164712938327979</v>
+        <v>6.215731302363323</v>
       </c>
       <c r="E12">
-        <v>22.32816565071501</v>
+        <v>22.2741696589072</v>
       </c>
       <c r="F12">
-        <v>15.77663434025355</v>
+        <v>15.6780390776954</v>
       </c>
       <c r="G12">
-        <v>17.84915383944137</v>
+        <v>20.25582308479134</v>
       </c>
       <c r="H12">
-        <v>5.234677035220304</v>
+        <v>5.213016237450848</v>
       </c>
       <c r="I12">
-        <v>2.991973450235966</v>
+        <v>2.813478965147115</v>
       </c>
       <c r="J12">
-        <v>7.013168288446693</v>
+        <v>6.996331140621223</v>
       </c>
       <c r="K12">
-        <v>13.18692588974067</v>
+        <v>12.61030480273526</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.67361107217865</v>
       </c>
       <c r="M12">
-        <v>23.03365366388074</v>
+        <v>7.934310984008958</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>22.46606789120399</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.18475250252918</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.15158522201642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.06174995718831</v>
+        <v>10.53939193898175</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.342112782128175</v>
+        <v>6.38149699887011</v>
       </c>
       <c r="E13">
-        <v>16.39599281146201</v>
+        <v>16.33522063994079</v>
       </c>
       <c r="F13">
-        <v>14.90422992382696</v>
+        <v>14.863256921711</v>
       </c>
       <c r="G13">
-        <v>16.28211584091205</v>
+        <v>18.60021171977203</v>
       </c>
       <c r="H13">
-        <v>6.271843633862654</v>
+        <v>6.25505676757105</v>
       </c>
       <c r="I13">
-        <v>3.005120525625812</v>
+        <v>2.823515892376462</v>
       </c>
       <c r="J13">
-        <v>6.775331586490983</v>
+        <v>6.884122943612718</v>
       </c>
       <c r="K13">
-        <v>13.37711305586293</v>
+        <v>12.74292726710054</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.76749679811426</v>
       </c>
       <c r="M13">
-        <v>22.82895666192224</v>
+        <v>8.042189823038189</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>22.21875946992115</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.54142309851083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.55736725177005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.06833603100737</v>
+        <v>10.57347133629342</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.43278602621771</v>
+        <v>6.453265209357292</v>
       </c>
       <c r="E14">
-        <v>12.31681621406874</v>
+        <v>12.24912090683836</v>
       </c>
       <c r="F14">
-        <v>14.23196221549635</v>
+        <v>14.27750220992708</v>
       </c>
       <c r="G14">
-        <v>15.105812478269</v>
+        <v>17.09134272582625</v>
       </c>
       <c r="H14">
-        <v>7.081668340555629</v>
+        <v>7.068131524436899</v>
       </c>
       <c r="I14">
-        <v>3.029209142050316</v>
+        <v>2.843442061041807</v>
       </c>
       <c r="J14">
-        <v>6.619063792525822</v>
+        <v>6.887954480379952</v>
       </c>
       <c r="K14">
-        <v>13.53998615922336</v>
+        <v>12.84927441108905</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.81444055812973</v>
       </c>
       <c r="M14">
-        <v>22.55853998971483</v>
+        <v>8.152176153353881</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>21.92597034738614</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.09051345608536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.17283336221688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.02794230443052</v>
+        <v>10.53800185193274</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.439204428965393</v>
+        <v>6.450354445335969</v>
       </c>
       <c r="E15">
-        <v>11.33983223391024</v>
+        <v>11.27093628092119</v>
       </c>
       <c r="F15">
-        <v>14.03870486999585</v>
+        <v>14.12543632794188</v>
       </c>
       <c r="G15">
-        <v>14.78062429495446</v>
+        <v>16.57005411045181</v>
       </c>
       <c r="H15">
-        <v>7.268627074564363</v>
+        <v>7.256041696002412</v>
       </c>
       <c r="I15">
-        <v>3.045351270980652</v>
+        <v>2.858163916564509</v>
       </c>
       <c r="J15">
-        <v>6.584534057207526</v>
+        <v>6.923410000524805</v>
       </c>
       <c r="K15">
-        <v>13.59606702271441</v>
+        <v>12.88428666921522</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.81913300945583</v>
       </c>
       <c r="M15">
-        <v>22.43865936223989</v>
+        <v>8.197420081202013</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>21.80309864921347</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9.978123760815484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.09029340724556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.712426567390144</v>
+        <v>10.19778708944966</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.266601763199271</v>
+        <v>6.240579547716337</v>
       </c>
       <c r="E16">
-        <v>11.25059267549852</v>
+        <v>11.19445703626124</v>
       </c>
       <c r="F16">
-        <v>13.86059549618493</v>
+        <v>14.10538995667354</v>
       </c>
       <c r="G16">
-        <v>14.59694525318189</v>
+        <v>15.42774332291452</v>
       </c>
       <c r="H16">
-        <v>6.996406104074833</v>
+        <v>6.986213515763322</v>
       </c>
       <c r="I16">
-        <v>3.111083878347362</v>
+        <v>2.912586101988358</v>
       </c>
       <c r="J16">
-        <v>6.640583471415222</v>
+        <v>7.259508431268942</v>
       </c>
       <c r="K16">
-        <v>13.66032031545293</v>
+        <v>12.91023899982641</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.7146979379112</v>
       </c>
       <c r="M16">
-        <v>21.83276515012545</v>
+        <v>8.320918176243703</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>21.22778434295522</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.01686463707947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.23745438266732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.459056350210208</v>
+        <v>9.915342002302111</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.081362085749585</v>
+        <v>6.04241450961785</v>
       </c>
       <c r="E17">
-        <v>13.38397498023537</v>
+        <v>13.33970674579438</v>
       </c>
       <c r="F17">
-        <v>14.09344512904347</v>
+        <v>14.39213710572368</v>
       </c>
       <c r="G17">
-        <v>15.10446952028415</v>
+        <v>15.50982449000789</v>
       </c>
       <c r="H17">
-        <v>6.307403205461874</v>
+        <v>6.297567287591361</v>
       </c>
       <c r="I17">
-        <v>3.1496487394845</v>
+        <v>2.944892602987367</v>
       </c>
       <c r="J17">
-        <v>6.765760348612545</v>
+        <v>7.502316851229568</v>
       </c>
       <c r="K17">
-        <v>13.62704983481052</v>
+        <v>12.88522919469429</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.62576120326129</v>
       </c>
       <c r="M17">
-        <v>21.50983960450121</v>
+        <v>8.360382681472226</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>20.93585960548078</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.28667152711925</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.54333948680237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.261905222565661</v>
+        <v>9.671171741875083</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.863111550026961</v>
+        <v>5.824421887862848</v>
       </c>
       <c r="E18">
-        <v>17.9642150697426</v>
+        <v>17.92904043482196</v>
       </c>
       <c r="F18">
-        <v>14.71507352159768</v>
+        <v>15.01380371467605</v>
       </c>
       <c r="G18">
-        <v>16.2825194677478</v>
+        <v>16.49215807375917</v>
       </c>
       <c r="H18">
-        <v>5.267927455457807</v>
+        <v>5.256669983463573</v>
       </c>
       <c r="I18">
-        <v>3.158212699379131</v>
+        <v>2.948816587078614</v>
       </c>
       <c r="J18">
-        <v>6.969062256348449</v>
+        <v>7.743596747531472</v>
       </c>
       <c r="K18">
-        <v>13.49775165613239</v>
+        <v>12.80070649314313</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.52969617744573</v>
       </c>
       <c r="M18">
-        <v>21.38076057181244</v>
+        <v>8.319627119497559</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>20.85137379931306</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10.79593904078237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.0531752167422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.073413204679944</v>
+        <v>9.428097479687885</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.644525489345799</v>
+        <v>5.612628846814722</v>
       </c>
       <c r="E19">
-        <v>24.24775163559961</v>
+        <v>24.2170119474698</v>
       </c>
       <c r="F19">
-        <v>15.55756615622766</v>
+        <v>15.83010166258635</v>
       </c>
       <c r="G19">
-        <v>17.83365868900591</v>
+        <v>17.9733672667017</v>
       </c>
       <c r="H19">
-        <v>4.278902775594609</v>
+        <v>4.264329722377181</v>
       </c>
       <c r="I19">
-        <v>3.159537187960298</v>
+        <v>2.951551272957966</v>
       </c>
       <c r="J19">
-        <v>7.211819209846136</v>
+        <v>7.981861192964137</v>
       </c>
       <c r="K19">
-        <v>13.35050914073307</v>
+        <v>12.70653097276443</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.45506959614711</v>
       </c>
       <c r="M19">
-        <v>21.47273819714159</v>
+        <v>8.245886362568115</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>20.9920837562896</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.43616746594078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.67599288361474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.02689619925583</v>
+        <v>9.29515734946664</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.428058404137899</v>
+        <v>5.419706301055594</v>
       </c>
       <c r="E20">
-        <v>34.37581338588498</v>
+        <v>34.34317247463706</v>
       </c>
       <c r="F20">
-        <v>17.03144533395137</v>
+        <v>17.20251824302962</v>
       </c>
       <c r="G20">
-        <v>20.44141422326828</v>
+        <v>20.81109899750476</v>
       </c>
       <c r="H20">
-        <v>3.959282413944715</v>
+        <v>3.938375058420764</v>
       </c>
       <c r="I20">
-        <v>3.105217097763584</v>
+        <v>2.907779158587024</v>
       </c>
       <c r="J20">
-        <v>7.577685083397961</v>
+        <v>8.202056093837317</v>
       </c>
       <c r="K20">
-        <v>13.07516849427348</v>
+        <v>12.5181003861529</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.37729338592984</v>
       </c>
       <c r="M20">
-        <v>22.08357946272411</v>
+        <v>8.039765169841203</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>21.67163003423758</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.46662715598064</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.631854686053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.527506156330956</v>
+        <v>9.823925896305912</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.651981791900763</v>
+        <v>5.717432988321551</v>
       </c>
       <c r="E21">
-        <v>37.14609425486077</v>
+        <v>37.09743752465405</v>
       </c>
       <c r="F21">
-        <v>17.77705588826294</v>
+        <v>17.59740826468429</v>
       </c>
       <c r="G21">
-        <v>21.52161519455278</v>
+        <v>23.79692296349365</v>
       </c>
       <c r="H21">
-        <v>4.276993950866105</v>
+        <v>4.2454718387032</v>
       </c>
       <c r="I21">
-        <v>2.985731568109087</v>
+        <v>2.811818619810764</v>
       </c>
       <c r="J21">
-        <v>7.626135161362334</v>
+        <v>7.425498402542121</v>
       </c>
       <c r="K21">
-        <v>12.83702634832737</v>
+        <v>12.35748403407406</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.44094764530558</v>
       </c>
       <c r="M21">
-        <v>23.27096600914024</v>
+        <v>7.771678074430939</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>22.81466167822705</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.77062903813494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.66053019934799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.88022735129908</v>
+        <v>10.20423785078217</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.802554679528904</v>
+        <v>5.918707770548259</v>
       </c>
       <c r="E22">
-        <v>38.44819757479041</v>
+        <v>38.38940589379639</v>
       </c>
       <c r="F22">
-        <v>18.22637275668285</v>
+        <v>17.80226995645516</v>
       </c>
       <c r="G22">
-        <v>22.156293836142</v>
+        <v>25.73798339381543</v>
       </c>
       <c r="H22">
-        <v>4.461813383179935</v>
+        <v>4.423608433076252</v>
       </c>
       <c r="I22">
-        <v>2.89868918140438</v>
+        <v>2.737259037203403</v>
       </c>
       <c r="J22">
-        <v>7.652566247213001</v>
+        <v>6.933291395476888</v>
       </c>
       <c r="K22">
-        <v>12.68048997820393</v>
+        <v>12.25817381480049</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.50029403309937</v>
       </c>
       <c r="M22">
-        <v>23.97725825562091</v>
+        <v>7.597725704293254</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>23.48909883790732</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.94929558386073</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.64183174598293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.725730543335761</v>
+        <v>10.02042847086805</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.718813900441278</v>
+        <v>5.800911342300264</v>
       </c>
       <c r="E23">
-        <v>37.75809411600704</v>
+        <v>37.70570879034562</v>
       </c>
       <c r="F23">
-        <v>18.00769333117559</v>
+        <v>17.74783344274457</v>
       </c>
       <c r="G23">
-        <v>21.85512366041612</v>
+        <v>24.53262561432842</v>
       </c>
       <c r="H23">
-        <v>4.363439771800785</v>
+        <v>4.329450980493895</v>
       </c>
       <c r="I23">
-        <v>2.933374719554976</v>
+        <v>2.762612882070531</v>
       </c>
       <c r="J23">
-        <v>7.645426161531043</v>
+        <v>7.272025390859553</v>
       </c>
       <c r="K23">
-        <v>12.74797557192534</v>
+        <v>12.29342683521786</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.4523230892785</v>
       </c>
       <c r="M23">
-        <v>23.57364861701222</v>
+        <v>7.678880663655783</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>23.11402152898187</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.87083123600864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.69616745689514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.056407132651604</v>
+        <v>9.311497978884207</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.396308317624941</v>
+        <v>5.388970250011354</v>
       </c>
       <c r="E24">
-        <v>35.03591026642051</v>
+        <v>35.00346978714592</v>
       </c>
       <c r="F24">
-        <v>17.14934667745725</v>
+        <v>17.31540644097414</v>
       </c>
       <c r="G24">
-        <v>20.65990139786449</v>
+        <v>21.00211303724835</v>
       </c>
       <c r="H24">
-        <v>3.983849762725034</v>
+        <v>3.962984314328891</v>
       </c>
       <c r="I24">
-        <v>3.087276155414951</v>
+        <v>2.885936715403207</v>
       </c>
       <c r="J24">
-        <v>7.616321083376089</v>
+        <v>8.242880528168486</v>
       </c>
       <c r="K24">
-        <v>13.04238584021767</v>
+        <v>12.49506132172431</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.35897772588039</v>
       </c>
       <c r="M24">
-        <v>22.03532378475313</v>
+        <v>8.02177481849348</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>21.63436600130783</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.56330927005065</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.72434657613343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.264361334609372</v>
+        <v>8.56786480198204</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.024034608433364</v>
+        <v>5.002571645199772</v>
       </c>
       <c r="E25">
-        <v>31.86518945101685</v>
+        <v>31.84194352967404</v>
       </c>
       <c r="F25">
-        <v>16.23523302767266</v>
+        <v>16.45483580365113</v>
       </c>
       <c r="G25">
-        <v>19.38712260492952</v>
+        <v>19.46612553414317</v>
       </c>
       <c r="H25">
-        <v>3.558242709569728</v>
+        <v>3.54352739888311</v>
       </c>
       <c r="I25">
-        <v>3.261863595853608</v>
+        <v>3.030500334275759</v>
       </c>
       <c r="J25">
-        <v>7.604709550875886</v>
+        <v>8.296144527459171</v>
       </c>
       <c r="K25">
-        <v>13.38548266923933</v>
+        <v>12.78166608992292</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.36759404480547</v>
       </c>
       <c r="M25">
-        <v>20.25657168136525</v>
+        <v>8.438940427487312</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>19.8238068931208</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.26922224184181</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.46246404610496</v>
       </c>
     </row>
   </sheetData>
